--- a/mapping-pn13/ig/StructureDefinition-oncofaire-medicationrequest-element.xlsx
+++ b/mapping-pn13/ig/StructureDefinition-oncofaire-medicationrequest-element.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-19T08:32:40+00:00</t>
+    <t>2024-04-22T07:26:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/mapping-pn13/ig/StructureDefinition-oncofaire-medicationrequest-element.xlsx
+++ b/mapping-pn13/ig/StructureDefinition-oncofaire-medicationrequest-element.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-22T07:26:57+00:00</t>
+    <t>2024-04-22T07:52:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/mapping-pn13/ig/StructureDefinition-oncofaire-medicationrequest-element.xlsx
+++ b/mapping-pn13/ig/StructureDefinition-oncofaire-medicationrequest-element.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6156" uniqueCount="913">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6156" uniqueCount="915">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-22T07:52:09+00:00</t>
+    <t>2024-04-22T09:18:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1530,6 +1530,9 @@
     <t>indication</t>
   </si>
   <si>
+    <t>Indication</t>
+  </si>
+  <si>
     <t>MedicationRequest.note:indication.id</t>
   </si>
   <si>
@@ -1549,6 +1552,9 @@
   </si>
   <si>
     <t>comment</t>
+  </si>
+  <si>
+    <t>Commentaires</t>
   </si>
   <si>
     <t>MedicationRequest.note:comment.id</t>
@@ -10744,7 +10750,7 @@
         <v>102</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>474</v>
+        <v>19</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>449</v>
@@ -11458,7 +11464,7 @@
         <v>102</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>449</v>
@@ -11478,7 +11484,7 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B70" t="s" s="2">
         <v>452</v>
@@ -11596,7 +11602,7 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B71" t="s" s="2">
         <v>453</v>
@@ -11716,7 +11722,7 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B72" t="s" s="2">
         <v>454</v>
@@ -11836,7 +11842,7 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="B73" t="s" s="2">
         <v>461</v>
@@ -11954,7 +11960,7 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="B74" t="s" s="2">
         <v>466</v>
@@ -12072,13 +12078,13 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B75" t="s" s="2">
         <v>444</v>
       </c>
       <c r="C75" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="D75" t="s" s="2">
         <v>79</v>
@@ -12172,7 +12178,7 @@
         <v>102</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="AL75" t="s" s="2">
         <v>449</v>
@@ -12192,7 +12198,7 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="B76" t="s" s="2">
         <v>452</v>
@@ -12236,7 +12242,7 @@
         <v>79</v>
       </c>
       <c r="S76" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="T76" t="s" s="2">
         <v>79</v>
@@ -12310,7 +12316,7 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="B77" t="s" s="2">
         <v>453</v>
@@ -12430,7 +12436,7 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="B78" t="s" s="2">
         <v>454</v>
@@ -12550,7 +12556,7 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="B79" t="s" s="2">
         <v>461</v>
@@ -12668,7 +12674,7 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="B80" t="s" s="2">
         <v>466</v>
@@ -12786,10 +12792,10 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -12815,14 +12821,14 @@
         <v>467</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" t="s" s="2">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="P81" t="s" s="2">
         <v>79</v>
@@ -12871,7 +12877,7 @@
         <v>79</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>77</v>
@@ -12898,7 +12904,7 @@
         <v>79</v>
       </c>
       <c r="AO81" t="s" s="2">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="AP81" t="s" s="2">
         <v>79</v>
@@ -12906,10 +12912,10 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -12935,10 +12941,10 @@
         <v>229</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="N82" s="2"/>
       <c r="O82" s="2"/>
@@ -12989,7 +12995,7 @@
         <v>79</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>77</v>
@@ -13016,7 +13022,7 @@
         <v>79</v>
       </c>
       <c r="AO82" t="s" s="2">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="AP82" t="s" s="2">
         <v>79</v>
@@ -13024,10 +13030,10 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -13142,10 +13148,10 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -13262,10 +13268,10 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -13291,13 +13297,13 @@
         <v>294</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="O85" s="2"/>
       <c r="P85" t="s" s="2">
@@ -13347,7 +13353,7 @@
         <v>79</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>77</v>
@@ -13356,13 +13362,13 @@
         <v>90</v>
       </c>
       <c r="AI85" t="s" s="2">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="AJ85" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="AL85" t="s" s="2">
         <v>79</v>
@@ -13374,18 +13380,18 @@
         <v>79</v>
       </c>
       <c r="AO85" t="s" s="2">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="AP85" t="s" s="2">
-        <v>513</v>
+        <v>515</v>
       </c>
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -13411,20 +13417,20 @@
         <v>294</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="O86" s="2"/>
       <c r="P86" t="s" s="2">
         <v>79</v>
       </c>
       <c r="Q86" t="s" s="2">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="R86" t="s" s="2">
         <v>79</v>
@@ -13469,7 +13475,7 @@
         <v>79</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>77</v>
@@ -13478,13 +13484,13 @@
         <v>90</v>
       </c>
       <c r="AI86" t="s" s="2">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="AJ86" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="AL86" t="s" s="2">
         <v>79</v>
@@ -13496,18 +13502,18 @@
         <v>79</v>
       </c>
       <c r="AO86" t="s" s="2">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="AP86" t="s" s="2">
-        <v>522</v>
+        <v>524</v>
       </c>
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -13530,16 +13536,16 @@
         <v>79</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="O87" s="2"/>
       <c r="P87" t="s" s="2">
@@ -13589,7 +13595,7 @@
         <v>79</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>77</v>
@@ -13616,7 +13622,7 @@
         <v>79</v>
       </c>
       <c r="AO87" t="s" s="2">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="AP87" t="s" s="2">
         <v>79</v>
@@ -13624,10 +13630,10 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -13742,10 +13748,10 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -13862,14 +13868,14 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="E90" s="2"/>
       <c r="F90" t="s" s="2">
@@ -13891,10 +13897,10 @@
         <v>137</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="N90" t="s" s="2">
         <v>164</v>
@@ -13949,7 +13955,7 @@
         <v>79</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>77</v>
@@ -13984,10 +13990,10 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -14010,17 +14016,17 @@
         <v>91</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="N91" s="2"/>
       <c r="O91" t="s" s="2">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="P91" t="s" s="2">
         <v>79</v>
@@ -14069,7 +14075,7 @@
         <v>79</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>77</v>
@@ -14096,18 +14102,18 @@
         <v>79</v>
       </c>
       <c r="AO91" t="s" s="2">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="AP91" t="s" s="2">
-        <v>543</v>
+        <v>545</v>
       </c>
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -14133,14 +14139,14 @@
         <v>219</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="N92" s="2"/>
       <c r="O92" t="s" s="2">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="P92" t="s" s="2">
         <v>79</v>
@@ -14189,7 +14195,7 @@
         <v>79</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>77</v>
@@ -14204,7 +14210,7 @@
         <v>102</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="AL92" t="s" s="2">
         <v>79</v>
@@ -14216,18 +14222,18 @@
         <v>79</v>
       </c>
       <c r="AO92" t="s" s="2">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="AP92" t="s" s="2">
-        <v>550</v>
+        <v>552</v>
       </c>
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -14253,16 +14259,16 @@
         <v>199</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="N93" t="s" s="2">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="O93" t="s" s="2">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="P93" t="s" s="2">
         <v>79</v>
@@ -14290,10 +14296,10 @@
         <v>288</v>
       </c>
       <c r="Y93" t="s" s="2">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="Z93" t="s" s="2">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="AA93" t="s" s="2">
         <v>79</v>
@@ -14311,7 +14317,7 @@
         <v>79</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>77</v>
@@ -14326,7 +14332,7 @@
         <v>102</v>
       </c>
       <c r="AK93" t="s" s="2">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="AL93" t="s" s="2">
         <v>79</v>
@@ -14338,18 +14344,18 @@
         <v>79</v>
       </c>
       <c r="AO93" t="s" s="2">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="AP93" t="s" s="2">
-        <v>560</v>
+        <v>562</v>
       </c>
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -14375,10 +14381,10 @@
         <v>219</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="N94" s="2"/>
       <c r="O94" s="2"/>
@@ -14429,7 +14435,7 @@
         <v>79</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>77</v>
@@ -14456,18 +14462,18 @@
         <v>79</v>
       </c>
       <c r="AO94" t="s" s="2">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="AP94" t="s" s="2">
-        <v>560</v>
+        <v>562</v>
       </c>
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -14490,19 +14496,19 @@
         <v>91</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="N95" t="s" s="2">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="O95" t="s" s="2">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="P95" t="s" s="2">
         <v>79</v>
@@ -14551,7 +14557,7 @@
         <v>79</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>77</v>
@@ -14578,7 +14584,7 @@
         <v>79</v>
       </c>
       <c r="AO95" t="s" s="2">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="AP95" t="s" s="2">
         <v>79</v>
@@ -14586,10 +14592,10 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -14704,10 +14710,10 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -14824,14 +14830,14 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="E98" s="2"/>
       <c r="F98" t="s" s="2">
@@ -14853,10 +14859,10 @@
         <v>137</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="N98" t="s" s="2">
         <v>164</v>
@@ -14911,7 +14917,7 @@
         <v>79</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>77</v>
@@ -14946,10 +14952,10 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -14975,14 +14981,14 @@
         <v>294</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="N99" s="2"/>
       <c r="O99" t="s" s="2">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="P99" t="s" s="2">
         <v>79</v>
@@ -15031,7 +15037,7 @@
         <v>79</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>77</v>
@@ -15058,7 +15064,7 @@
         <v>79</v>
       </c>
       <c r="AO99" t="s" s="2">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="AP99" t="s" s="2">
         <v>79</v>
@@ -15066,10 +15072,10 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -15092,17 +15098,17 @@
         <v>91</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="N100" s="2"/>
       <c r="O100" t="s" s="2">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="P100" t="s" s="2">
         <v>79</v>
@@ -15151,7 +15157,7 @@
         <v>79</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>77</v>
@@ -15163,7 +15169,7 @@
         <v>79</v>
       </c>
       <c r="AJ100" t="s" s="2">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="AK100" t="s" s="2">
         <v>79</v>
@@ -15178,7 +15184,7 @@
         <v>79</v>
       </c>
       <c r="AO100" t="s" s="2">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="AP100" t="s" s="2">
         <v>79</v>
@@ -15186,10 +15192,10 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -15304,10 +15310,10 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -15424,10 +15430,10 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -15450,13 +15456,13 @@
         <v>91</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="N103" s="2"/>
       <c r="O103" s="2"/>
@@ -15495,7 +15501,7 @@
         <v>79</v>
       </c>
       <c r="AB103" t="s" s="2">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="AC103" s="2"/>
       <c r="AD103" t="s" s="2">
@@ -15505,7 +15511,7 @@
         <v>141</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>77</v>
@@ -15532,7 +15538,7 @@
         <v>79</v>
       </c>
       <c r="AO103" t="s" s="2">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="AP103" t="s" s="2">
         <v>79</v>
@@ -15540,13 +15546,13 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="C104" t="s" s="2">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="D104" t="s" s="2">
         <v>79</v>
@@ -15571,10 +15577,10 @@
         <v>229</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="N104" s="2"/>
       <c r="O104" s="2"/>
@@ -15625,7 +15631,7 @@
         <v>79</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>77</v>
@@ -15652,7 +15658,7 @@
         <v>79</v>
       </c>
       <c r="AO104" t="s" s="2">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="AP104" t="s" s="2">
         <v>79</v>
@@ -15660,10 +15666,10 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -15778,10 +15784,10 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
@@ -15898,10 +15904,10 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
@@ -15927,13 +15933,13 @@
         <v>294</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="N107" t="s" s="2">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="O107" s="2"/>
       <c r="P107" t="s" s="2">
@@ -15983,7 +15989,7 @@
         <v>79</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="AG107" t="s" s="2">
         <v>77</v>
@@ -15992,13 +15998,13 @@
         <v>90</v>
       </c>
       <c r="AI107" t="s" s="2">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="AJ107" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AK107" t="s" s="2">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="AL107" t="s" s="2">
         <v>79</v>
@@ -16010,18 +16016,18 @@
         <v>79</v>
       </c>
       <c r="AO107" t="s" s="2">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="AP107" t="s" s="2">
-        <v>513</v>
+        <v>515</v>
       </c>
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
@@ -16047,20 +16053,20 @@
         <v>294</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="N108" t="s" s="2">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="O108" s="2"/>
       <c r="P108" t="s" s="2">
         <v>79</v>
       </c>
       <c r="Q108" t="s" s="2">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="R108" t="s" s="2">
         <v>79</v>
@@ -16105,7 +16111,7 @@
         <v>79</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="AG108" t="s" s="2">
         <v>77</v>
@@ -16114,13 +16120,13 @@
         <v>90</v>
       </c>
       <c r="AI108" t="s" s="2">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="AJ108" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AK108" t="s" s="2">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="AL108" t="s" s="2">
         <v>79</v>
@@ -16132,18 +16138,18 @@
         <v>79</v>
       </c>
       <c r="AO108" t="s" s="2">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="AP108" t="s" s="2">
-        <v>522</v>
+        <v>524</v>
       </c>
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
@@ -16166,19 +16172,19 @@
         <v>91</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="N109" t="s" s="2">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="O109" t="s" s="2">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="P109" t="s" s="2">
         <v>79</v>
@@ -16227,7 +16233,7 @@
         <v>79</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="AG109" t="s" s="2">
         <v>77</v>
@@ -16236,7 +16242,7 @@
         <v>90</v>
       </c>
       <c r="AI109" t="s" s="2">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="AJ109" t="s" s="2">
         <v>102</v>
@@ -16254,7 +16260,7 @@
         <v>79</v>
       </c>
       <c r="AO109" t="s" s="2">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="AP109" t="s" s="2">
         <v>79</v>
@@ -16262,10 +16268,10 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
@@ -16288,13 +16294,13 @@
         <v>91</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="N110" s="2"/>
       <c r="O110" s="2"/>
@@ -16345,7 +16351,7 @@
         <v>79</v>
       </c>
       <c r="AF110" t="s" s="2">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="AG110" t="s" s="2">
         <v>77</v>
@@ -16354,7 +16360,7 @@
         <v>90</v>
       </c>
       <c r="AI110" t="s" s="2">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="AJ110" t="s" s="2">
         <v>102</v>
@@ -16372,7 +16378,7 @@
         <v>79</v>
       </c>
       <c r="AO110" t="s" s="2">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="AP110" t="s" s="2">
         <v>79</v>
@@ -16380,10 +16386,10 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
@@ -16406,19 +16412,19 @@
         <v>91</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="N111" t="s" s="2">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="O111" t="s" s="2">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="P111" t="s" s="2">
         <v>79</v>
@@ -16467,7 +16473,7 @@
         <v>79</v>
       </c>
       <c r="AF111" t="s" s="2">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="AG111" t="s" s="2">
         <v>77</v>
@@ -16476,7 +16482,7 @@
         <v>90</v>
       </c>
       <c r="AI111" t="s" s="2">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="AJ111" t="s" s="2">
         <v>102</v>
@@ -16494,7 +16500,7 @@
         <v>79</v>
       </c>
       <c r="AO111" t="s" s="2">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="AP111" t="s" s="2">
         <v>79</v>
@@ -16502,10 +16508,10 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
@@ -16528,19 +16534,19 @@
         <v>91</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="N112" t="s" s="2">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="O112" t="s" s="2">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="P112" t="s" s="2">
         <v>79</v>
@@ -16589,7 +16595,7 @@
         <v>79</v>
       </c>
       <c r="AF112" t="s" s="2">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="AG112" t="s" s="2">
         <v>77</v>
@@ -16598,7 +16604,7 @@
         <v>90</v>
       </c>
       <c r="AI112" t="s" s="2">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="AJ112" t="s" s="2">
         <v>102</v>
@@ -16616,7 +16622,7 @@
         <v>79</v>
       </c>
       <c r="AO112" t="s" s="2">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="AP112" t="s" s="2">
         <v>79</v>
@@ -16624,10 +16630,10 @@
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" t="s" s="2">
@@ -16653,10 +16659,10 @@
         <v>110</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="N113" s="2"/>
       <c r="O113" s="2"/>
@@ -16686,10 +16692,10 @@
         <v>114</v>
       </c>
       <c r="Y113" t="s" s="2">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="Z113" t="s" s="2">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="AA113" t="s" s="2">
         <v>79</v>
@@ -16707,7 +16713,7 @@
         <v>79</v>
       </c>
       <c r="AF113" t="s" s="2">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="AG113" t="s" s="2">
         <v>77</v>
@@ -16716,7 +16722,7 @@
         <v>90</v>
       </c>
       <c r="AI113" t="s" s="2">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="AJ113" t="s" s="2">
         <v>102</v>
@@ -16734,7 +16740,7 @@
         <v>79</v>
       </c>
       <c r="AO113" t="s" s="2">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="AP113" t="s" s="2">
         <v>79</v>
@@ -16742,10 +16748,10 @@
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" t="s" s="2">
@@ -16768,13 +16774,13 @@
         <v>91</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="N114" s="2"/>
       <c r="O114" s="2"/>
@@ -16782,7 +16788,7 @@
         <v>79</v>
       </c>
       <c r="Q114" t="s" s="2">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="R114" t="s" s="2">
         <v>79</v>
@@ -16827,7 +16833,7 @@
         <v>79</v>
       </c>
       <c r="AF114" t="s" s="2">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="AG114" t="s" s="2">
         <v>77</v>
@@ -16854,7 +16860,7 @@
         <v>79</v>
       </c>
       <c r="AO114" t="s" s="2">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="AP114" t="s" s="2">
         <v>79</v>
@@ -16862,10 +16868,10 @@
     </row>
     <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" t="s" s="2">
@@ -16888,13 +16894,13 @@
         <v>91</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="M115" t="s" s="2">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="N115" s="2"/>
       <c r="O115" s="2"/>
@@ -16945,7 +16951,7 @@
         <v>79</v>
       </c>
       <c r="AF115" t="s" s="2">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="AG115" t="s" s="2">
         <v>77</v>
@@ -16972,7 +16978,7 @@
         <v>79</v>
       </c>
       <c r="AO115" t="s" s="2">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="AP115" t="s" s="2">
         <v>79</v>
@@ -16980,10 +16986,10 @@
     </row>
     <row r="116" hidden="true">
       <c r="A116" t="s" s="2">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" t="s" s="2">
@@ -17006,13 +17012,13 @@
         <v>91</v>
       </c>
       <c r="K116" t="s" s="2">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="M116" t="s" s="2">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="N116" s="2"/>
       <c r="O116" s="2"/>
@@ -17063,7 +17069,7 @@
         <v>79</v>
       </c>
       <c r="AF116" t="s" s="2">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="AG116" t="s" s="2">
         <v>77</v>
@@ -17072,7 +17078,7 @@
         <v>90</v>
       </c>
       <c r="AI116" t="s" s="2">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="AJ116" t="s" s="2">
         <v>102</v>
@@ -17090,7 +17096,7 @@
         <v>79</v>
       </c>
       <c r="AO116" t="s" s="2">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="AP116" t="s" s="2">
         <v>79</v>
@@ -17098,10 +17104,10 @@
     </row>
     <row r="117" hidden="true">
       <c r="A117" t="s" s="2">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" t="s" s="2">
@@ -17124,13 +17130,13 @@
         <v>91</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="N117" s="2"/>
       <c r="O117" s="2"/>
@@ -17181,7 +17187,7 @@
         <v>79</v>
       </c>
       <c r="AF117" t="s" s="2">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="AG117" t="s" s="2">
         <v>77</v>
@@ -17190,7 +17196,7 @@
         <v>90</v>
       </c>
       <c r="AI117" t="s" s="2">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="AJ117" t="s" s="2">
         <v>102</v>
@@ -17208,7 +17214,7 @@
         <v>79</v>
       </c>
       <c r="AO117" t="s" s="2">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="AP117" t="s" s="2">
         <v>79</v>
@@ -17216,10 +17222,10 @@
     </row>
     <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="C118" s="2"/>
       <c r="D118" t="s" s="2">
@@ -17245,10 +17251,10 @@
         <v>110</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="M118" t="s" s="2">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="N118" s="2"/>
       <c r="O118" s="2"/>
@@ -17278,10 +17284,10 @@
         <v>114</v>
       </c>
       <c r="Y118" t="s" s="2">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="Z118" t="s" s="2">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="AA118" t="s" s="2">
         <v>79</v>
@@ -17299,7 +17305,7 @@
         <v>79</v>
       </c>
       <c r="AF118" t="s" s="2">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="AG118" t="s" s="2">
         <v>77</v>
@@ -17308,7 +17314,7 @@
         <v>90</v>
       </c>
       <c r="AI118" t="s" s="2">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="AJ118" t="s" s="2">
         <v>102</v>
@@ -17326,7 +17332,7 @@
         <v>79</v>
       </c>
       <c r="AO118" t="s" s="2">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="AP118" t="s" s="2">
         <v>79</v>
@@ -17334,10 +17340,10 @@
     </row>
     <row r="119" hidden="true">
       <c r="A119" t="s" s="2">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" t="s" s="2">
@@ -17363,13 +17369,13 @@
         <v>110</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="M119" t="s" s="2">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="N119" t="s" s="2">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="O119" s="2"/>
       <c r="P119" t="s" s="2">
@@ -17399,7 +17405,7 @@
       </c>
       <c r="Y119" s="2"/>
       <c r="Z119" t="s" s="2">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="AA119" t="s" s="2">
         <v>79</v>
@@ -17417,7 +17423,7 @@
         <v>79</v>
       </c>
       <c r="AF119" t="s" s="2">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="AG119" t="s" s="2">
         <v>77</v>
@@ -17452,10 +17458,10 @@
     </row>
     <row r="120" hidden="true">
       <c r="A120" t="s" s="2">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" t="s" s="2">
@@ -17478,16 +17484,16 @@
         <v>91</v>
       </c>
       <c r="K120" t="s" s="2">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="M120" t="s" s="2">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="N120" t="s" s="2">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="O120" s="2"/>
       <c r="P120" t="s" s="2">
@@ -17537,7 +17543,7 @@
         <v>79</v>
       </c>
       <c r="AF120" t="s" s="2">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="AG120" t="s" s="2">
         <v>77</v>
@@ -17546,7 +17552,7 @@
         <v>78</v>
       </c>
       <c r="AI120" t="s" s="2">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="AJ120" t="s" s="2">
         <v>102</v>
@@ -17572,10 +17578,10 @@
     </row>
     <row r="121" hidden="true">
       <c r="A121" t="s" s="2">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="C121" s="2"/>
       <c r="D121" t="s" s="2">
@@ -17601,16 +17607,16 @@
         <v>110</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="M121" t="s" s="2">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="N121" t="s" s="2">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="O121" t="s" s="2">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="P121" t="s" s="2">
         <v>79</v>
@@ -17638,10 +17644,10 @@
         <v>114</v>
       </c>
       <c r="Y121" t="s" s="2">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="Z121" t="s" s="2">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="AA121" t="s" s="2">
         <v>79</v>
@@ -17659,7 +17665,7 @@
         <v>79</v>
       </c>
       <c r="AF121" t="s" s="2">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="AG121" t="s" s="2">
         <v>77</v>
@@ -17668,7 +17674,7 @@
         <v>78</v>
       </c>
       <c r="AI121" t="s" s="2">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="AJ121" t="s" s="2">
         <v>102</v>
@@ -17686,7 +17692,7 @@
         <v>79</v>
       </c>
       <c r="AO121" t="s" s="2">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="AP121" t="s" s="2">
         <v>79</v>
@@ -17694,10 +17700,10 @@
     </row>
     <row r="122" hidden="true">
       <c r="A122" t="s" s="2">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" t="s" s="2">
@@ -17720,13 +17726,13 @@
         <v>91</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="M122" t="s" s="2">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="N122" s="2"/>
       <c r="O122" s="2"/>
@@ -17777,7 +17783,7 @@
         <v>79</v>
       </c>
       <c r="AF122" t="s" s="2">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="AG122" t="s" s="2">
         <v>77</v>
@@ -17786,13 +17792,13 @@
         <v>90</v>
       </c>
       <c r="AI122" t="s" s="2">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="AJ122" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AK122" t="s" s="2">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="AL122" t="s" s="2">
         <v>79</v>
@@ -17804,7 +17810,7 @@
         <v>79</v>
       </c>
       <c r="AO122" t="s" s="2">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="AP122" t="s" s="2">
         <v>79</v>
@@ -17812,10 +17818,10 @@
     </row>
     <row r="123" hidden="true">
       <c r="A123" t="s" s="2">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="C123" s="2"/>
       <c r="D123" t="s" s="2">
@@ -17841,13 +17847,13 @@
         <v>199</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="M123" t="s" s="2">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="N123" t="s" s="2">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="O123" s="2"/>
       <c r="P123" t="s" s="2">
@@ -17873,13 +17879,13 @@
         <v>79</v>
       </c>
       <c r="X123" t="s" s="2">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="Y123" t="s" s="2">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="Z123" t="s" s="2">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="AA123" t="s" s="2">
         <v>79</v>
@@ -17897,7 +17903,7 @@
         <v>79</v>
       </c>
       <c r="AF123" t="s" s="2">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="AG123" t="s" s="2">
         <v>77</v>
@@ -17924,7 +17930,7 @@
         <v>79</v>
       </c>
       <c r="AO123" t="s" s="2">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="AP123" t="s" s="2">
         <v>79</v>
@@ -17932,10 +17938,10 @@
     </row>
     <row r="124" hidden="true">
       <c r="A124" t="s" s="2">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" t="s" s="2">
@@ -17961,13 +17967,13 @@
         <v>325</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="M124" t="s" s="2">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="N124" t="s" s="2">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="O124" s="2"/>
       <c r="P124" t="s" s="2">
@@ -18017,7 +18023,7 @@
         <v>79</v>
       </c>
       <c r="AF124" t="s" s="2">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="AG124" t="s" s="2">
         <v>77</v>
@@ -18026,7 +18032,7 @@
         <v>90</v>
       </c>
       <c r="AI124" t="s" s="2">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="AJ124" t="s" s="2">
         <v>102</v>
@@ -18044,18 +18050,18 @@
         <v>79</v>
       </c>
       <c r="AO124" t="s" s="2">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="AP124" t="s" s="2">
-        <v>716</v>
+        <v>718</v>
       </c>
     </row>
     <row r="125" hidden="true">
       <c r="A125" t="s" s="2">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="C125" s="2"/>
       <c r="D125" t="s" s="2">
@@ -18081,13 +18087,13 @@
         <v>199</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="M125" t="s" s="2">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="N125" t="s" s="2">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="O125" s="2"/>
       <c r="P125" t="s" s="2">
@@ -18116,10 +18122,10 @@
         <v>288</v>
       </c>
       <c r="Y125" t="s" s="2">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="Z125" t="s" s="2">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="AA125" t="s" s="2">
         <v>79</v>
@@ -18137,7 +18143,7 @@
         <v>79</v>
       </c>
       <c r="AF125" t="s" s="2">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="AG125" t="s" s="2">
         <v>77</v>
@@ -18146,7 +18152,7 @@
         <v>78</v>
       </c>
       <c r="AI125" t="s" s="2">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="AJ125" t="s" s="2">
         <v>102</v>
@@ -18164,18 +18170,18 @@
         <v>79</v>
       </c>
       <c r="AO125" t="s" s="2">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="AP125" t="s" s="2">
-        <v>716</v>
+        <v>718</v>
       </c>
     </row>
     <row r="126" hidden="true">
       <c r="A126" t="s" s="2">
-        <v>724</v>
+        <v>726</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>724</v>
+        <v>726</v>
       </c>
       <c r="C126" s="2"/>
       <c r="D126" t="s" s="2">
@@ -18201,16 +18207,16 @@
         <v>199</v>
       </c>
       <c r="L126" t="s" s="2">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="M126" t="s" s="2">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="N126" t="s" s="2">
-        <v>727</v>
+        <v>729</v>
       </c>
       <c r="O126" t="s" s="2">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="P126" t="s" s="2">
         <v>79</v>
@@ -18238,10 +18244,10 @@
         <v>288</v>
       </c>
       <c r="Y126" t="s" s="2">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="Z126" t="s" s="2">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="AA126" t="s" s="2">
         <v>79</v>
@@ -18259,7 +18265,7 @@
         <v>79</v>
       </c>
       <c r="AF126" t="s" s="2">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="AG126" t="s" s="2">
         <v>77</v>
@@ -18274,7 +18280,7 @@
         <v>102</v>
       </c>
       <c r="AK126" t="s" s="2">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="AL126" t="s" s="2">
         <v>79</v>
@@ -18286,18 +18292,18 @@
         <v>79</v>
       </c>
       <c r="AO126" t="s" s="2">
-        <v>733</v>
+        <v>735</v>
       </c>
       <c r="AP126" t="s" s="2">
-        <v>734</v>
+        <v>736</v>
       </c>
     </row>
     <row r="127" hidden="true">
       <c r="A127" t="s" s="2">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="B127" t="s" s="2">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="C127" s="2"/>
       <c r="D127" t="s" s="2">
@@ -18323,14 +18329,14 @@
         <v>199</v>
       </c>
       <c r="L127" t="s" s="2">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="M127" t="s" s="2">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="N127" s="2"/>
       <c r="O127" t="s" s="2">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="P127" t="s" s="2">
         <v>79</v>
@@ -18358,10 +18364,10 @@
         <v>288</v>
       </c>
       <c r="Y127" t="s" s="2">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="Z127" t="s" s="2">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="AA127" t="s" s="2">
         <v>79</v>
@@ -18379,7 +18385,7 @@
         <v>79</v>
       </c>
       <c r="AF127" t="s" s="2">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="AG127" t="s" s="2">
         <v>77</v>
@@ -18394,7 +18400,7 @@
         <v>102</v>
       </c>
       <c r="AK127" t="s" s="2">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="AL127" t="s" s="2">
         <v>79</v>
@@ -18406,18 +18412,18 @@
         <v>79</v>
       </c>
       <c r="AO127" t="s" s="2">
-        <v>743</v>
+        <v>745</v>
       </c>
       <c r="AP127" t="s" s="2">
-        <v>744</v>
+        <v>746</v>
       </c>
     </row>
     <row r="128" hidden="true">
       <c r="A128" t="s" s="2">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="B128" t="s" s="2">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="C128" s="2"/>
       <c r="D128" t="s" s="2">
@@ -18443,16 +18449,16 @@
         <v>199</v>
       </c>
       <c r="L128" t="s" s="2">
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="M128" t="s" s="2">
-        <v>747</v>
+        <v>749</v>
       </c>
       <c r="N128" t="s" s="2">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="O128" t="s" s="2">
-        <v>749</v>
+        <v>751</v>
       </c>
       <c r="P128" t="s" s="2">
         <v>79</v>
@@ -18480,10 +18486,10 @@
         <v>288</v>
       </c>
       <c r="Y128" t="s" s="2">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="Z128" t="s" s="2">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="AA128" t="s" s="2">
         <v>79</v>
@@ -18501,7 +18507,7 @@
         <v>79</v>
       </c>
       <c r="AF128" t="s" s="2">
-        <v>752</v>
+        <v>754</v>
       </c>
       <c r="AG128" t="s" s="2">
         <v>77</v>
@@ -18516,7 +18522,7 @@
         <v>102</v>
       </c>
       <c r="AK128" t="s" s="2">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="AL128" t="s" s="2">
         <v>79</v>
@@ -18528,18 +18534,18 @@
         <v>79</v>
       </c>
       <c r="AO128" t="s" s="2">
-        <v>754</v>
+        <v>756</v>
       </c>
       <c r="AP128" t="s" s="2">
-        <v>755</v>
+        <v>757</v>
       </c>
     </row>
     <row r="129" hidden="true">
       <c r="A129" t="s" s="2">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="B129" t="s" s="2">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="C129" s="2"/>
       <c r="D129" t="s" s="2">
@@ -18562,13 +18568,13 @@
         <v>91</v>
       </c>
       <c r="K129" t="s" s="2">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="L129" t="s" s="2">
-        <v>757</v>
+        <v>759</v>
       </c>
       <c r="M129" t="s" s="2">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="N129" s="2"/>
       <c r="O129" s="2"/>
@@ -18619,7 +18625,7 @@
         <v>79</v>
       </c>
       <c r="AF129" t="s" s="2">
-        <v>759</v>
+        <v>761</v>
       </c>
       <c r="AG129" t="s" s="2">
         <v>77</v>
@@ -18646,18 +18652,18 @@
         <v>79</v>
       </c>
       <c r="AO129" t="s" s="2">
-        <v>760</v>
+        <v>762</v>
       </c>
       <c r="AP129" t="s" s="2">
-        <v>761</v>
+        <v>763</v>
       </c>
     </row>
     <row r="130" hidden="true">
       <c r="A130" t="s" s="2">
-        <v>762</v>
+        <v>764</v>
       </c>
       <c r="B130" t="s" s="2">
-        <v>762</v>
+        <v>764</v>
       </c>
       <c r="C130" s="2"/>
       <c r="D130" t="s" s="2">
@@ -18772,10 +18778,10 @@
     </row>
     <row r="131" hidden="true">
       <c r="A131" t="s" s="2">
-        <v>763</v>
+        <v>765</v>
       </c>
       <c r="B131" t="s" s="2">
-        <v>763</v>
+        <v>765</v>
       </c>
       <c r="C131" s="2"/>
       <c r="D131" t="s" s="2">
@@ -18892,10 +18898,10 @@
     </row>
     <row r="132" hidden="true">
       <c r="A132" t="s" s="2">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="B132" t="s" s="2">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="C132" s="2"/>
       <c r="D132" t="s" s="2">
@@ -18921,14 +18927,14 @@
         <v>199</v>
       </c>
       <c r="L132" t="s" s="2">
-        <v>765</v>
+        <v>767</v>
       </c>
       <c r="M132" t="s" s="2">
-        <v>766</v>
+        <v>768</v>
       </c>
       <c r="N132" s="2"/>
       <c r="O132" t="s" s="2">
-        <v>767</v>
+        <v>769</v>
       </c>
       <c r="P132" t="s" s="2">
         <v>79</v>
@@ -18956,10 +18962,10 @@
         <v>288</v>
       </c>
       <c r="Y132" t="s" s="2">
-        <v>768</v>
+        <v>770</v>
       </c>
       <c r="Z132" t="s" s="2">
-        <v>769</v>
+        <v>771</v>
       </c>
       <c r="AA132" t="s" s="2">
         <v>79</v>
@@ -18977,7 +18983,7 @@
         <v>79</v>
       </c>
       <c r="AF132" t="s" s="2">
-        <v>770</v>
+        <v>772</v>
       </c>
       <c r="AG132" t="s" s="2">
         <v>77</v>
@@ -19007,15 +19013,15 @@
         <v>79</v>
       </c>
       <c r="AP132" t="s" s="2">
-        <v>771</v>
+        <v>773</v>
       </c>
     </row>
     <row r="133" hidden="true">
       <c r="A133" t="s" s="2">
-        <v>772</v>
+        <v>774</v>
       </c>
       <c r="B133" t="s" s="2">
-        <v>772</v>
+        <v>774</v>
       </c>
       <c r="C133" s="2"/>
       <c r="D133" t="s" s="2">
@@ -19038,19 +19044,19 @@
         <v>91</v>
       </c>
       <c r="K133" t="s" s="2">
-        <v>773</v>
+        <v>775</v>
       </c>
       <c r="L133" t="s" s="2">
-        <v>774</v>
+        <v>776</v>
       </c>
       <c r="M133" t="s" s="2">
-        <v>775</v>
+        <v>777</v>
       </c>
       <c r="N133" t="s" s="2">
-        <v>776</v>
+        <v>778</v>
       </c>
       <c r="O133" t="s" s="2">
-        <v>777</v>
+        <v>779</v>
       </c>
       <c r="P133" t="s" s="2">
         <v>79</v>
@@ -19099,7 +19105,7 @@
         <v>79</v>
       </c>
       <c r="AF133" t="s" s="2">
-        <v>778</v>
+        <v>780</v>
       </c>
       <c r="AG133" t="s" s="2">
         <v>77</v>
@@ -19126,18 +19132,18 @@
         <v>79</v>
       </c>
       <c r="AO133" t="s" s="2">
-        <v>779</v>
+        <v>781</v>
       </c>
       <c r="AP133" t="s" s="2">
-        <v>780</v>
+        <v>782</v>
       </c>
     </row>
     <row r="134" hidden="true">
       <c r="A134" t="s" s="2">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="B134" t="s" s="2">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="C134" s="2"/>
       <c r="D134" t="s" s="2">
@@ -19160,19 +19166,19 @@
         <v>91</v>
       </c>
       <c r="K134" t="s" s="2">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="L134" t="s" s="2">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="M134" t="s" s="2">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="N134" t="s" s="2">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="O134" t="s" s="2">
-        <v>786</v>
+        <v>788</v>
       </c>
       <c r="P134" t="s" s="2">
         <v>79</v>
@@ -19221,7 +19227,7 @@
         <v>79</v>
       </c>
       <c r="AF134" t="s" s="2">
-        <v>787</v>
+        <v>789</v>
       </c>
       <c r="AG134" t="s" s="2">
         <v>77</v>
@@ -19248,18 +19254,18 @@
         <v>79</v>
       </c>
       <c r="AO134" t="s" s="2">
-        <v>788</v>
+        <v>790</v>
       </c>
       <c r="AP134" t="s" s="2">
-        <v>789</v>
+        <v>791</v>
       </c>
     </row>
     <row r="135" hidden="true">
       <c r="A135" t="s" s="2">
-        <v>790</v>
+        <v>792</v>
       </c>
       <c r="B135" t="s" s="2">
-        <v>790</v>
+        <v>792</v>
       </c>
       <c r="C135" s="2"/>
       <c r="D135" t="s" s="2">
@@ -19282,19 +19288,19 @@
         <v>91</v>
       </c>
       <c r="K135" t="s" s="2">
-        <v>791</v>
+        <v>793</v>
       </c>
       <c r="L135" t="s" s="2">
-        <v>792</v>
+        <v>794</v>
       </c>
       <c r="M135" t="s" s="2">
-        <v>793</v>
+        <v>795</v>
       </c>
       <c r="N135" t="s" s="2">
-        <v>794</v>
+        <v>796</v>
       </c>
       <c r="O135" t="s" s="2">
-        <v>795</v>
+        <v>797</v>
       </c>
       <c r="P135" t="s" s="2">
         <v>79</v>
@@ -19343,7 +19349,7 @@
         <v>79</v>
       </c>
       <c r="AF135" t="s" s="2">
-        <v>796</v>
+        <v>798</v>
       </c>
       <c r="AG135" t="s" s="2">
         <v>77</v>
@@ -19370,18 +19376,18 @@
         <v>79</v>
       </c>
       <c r="AO135" t="s" s="2">
-        <v>797</v>
+        <v>799</v>
       </c>
       <c r="AP135" t="s" s="2">
-        <v>798</v>
+        <v>800</v>
       </c>
     </row>
     <row r="136" hidden="true">
       <c r="A136" t="s" s="2">
-        <v>799</v>
+        <v>801</v>
       </c>
       <c r="B136" t="s" s="2">
-        <v>799</v>
+        <v>801</v>
       </c>
       <c r="C136" s="2"/>
       <c r="D136" t="s" s="2">
@@ -19404,19 +19410,19 @@
         <v>91</v>
       </c>
       <c r="K136" t="s" s="2">
-        <v>800</v>
+        <v>802</v>
       </c>
       <c r="L136" t="s" s="2">
-        <v>801</v>
+        <v>803</v>
       </c>
       <c r="M136" t="s" s="2">
-        <v>802</v>
+        <v>804</v>
       </c>
       <c r="N136" t="s" s="2">
-        <v>803</v>
+        <v>805</v>
       </c>
       <c r="O136" t="s" s="2">
-        <v>804</v>
+        <v>806</v>
       </c>
       <c r="P136" t="s" s="2">
         <v>79</v>
@@ -19465,7 +19471,7 @@
         <v>79</v>
       </c>
       <c r="AF136" t="s" s="2">
-        <v>805</v>
+        <v>807</v>
       </c>
       <c r="AG136" t="s" s="2">
         <v>77</v>
@@ -19492,7 +19498,7 @@
         <v>79</v>
       </c>
       <c r="AO136" t="s" s="2">
-        <v>806</v>
+        <v>808</v>
       </c>
       <c r="AP136" t="s" s="2">
         <v>79</v>
@@ -19500,10 +19506,10 @@
     </row>
     <row r="137" hidden="true">
       <c r="A137" t="s" s="2">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="B137" t="s" s="2">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="C137" s="2"/>
       <c r="D137" t="s" s="2">
@@ -19526,17 +19532,17 @@
         <v>91</v>
       </c>
       <c r="K137" t="s" s="2">
-        <v>800</v>
+        <v>802</v>
       </c>
       <c r="L137" t="s" s="2">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="M137" t="s" s="2">
-        <v>809</v>
+        <v>811</v>
       </c>
       <c r="N137" s="2"/>
       <c r="O137" t="s" s="2">
-        <v>810</v>
+        <v>812</v>
       </c>
       <c r="P137" t="s" s="2">
         <v>79</v>
@@ -19585,7 +19591,7 @@
         <v>79</v>
       </c>
       <c r="AF137" t="s" s="2">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="AG137" t="s" s="2">
         <v>77</v>
@@ -19612,7 +19618,7 @@
         <v>79</v>
       </c>
       <c r="AO137" t="s" s="2">
-        <v>806</v>
+        <v>808</v>
       </c>
       <c r="AP137" t="s" s="2">
         <v>79</v>
@@ -19620,10 +19626,10 @@
     </row>
     <row r="138" hidden="true">
       <c r="A138" t="s" s="2">
-        <v>812</v>
+        <v>814</v>
       </c>
       <c r="B138" t="s" s="2">
-        <v>812</v>
+        <v>814</v>
       </c>
       <c r="C138" s="2"/>
       <c r="D138" t="s" s="2">
@@ -19646,13 +19652,13 @@
         <v>79</v>
       </c>
       <c r="K138" t="s" s="2">
-        <v>813</v>
+        <v>815</v>
       </c>
       <c r="L138" t="s" s="2">
-        <v>814</v>
+        <v>816</v>
       </c>
       <c r="M138" t="s" s="2">
-        <v>815</v>
+        <v>817</v>
       </c>
       <c r="N138" s="2"/>
       <c r="O138" s="2"/>
@@ -19703,7 +19709,7 @@
         <v>79</v>
       </c>
       <c r="AF138" t="s" s="2">
-        <v>812</v>
+        <v>814</v>
       </c>
       <c r="AG138" t="s" s="2">
         <v>77</v>
@@ -19724,13 +19730,13 @@
         <v>79</v>
       </c>
       <c r="AM138" t="s" s="2">
-        <v>816</v>
+        <v>818</v>
       </c>
       <c r="AN138" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO138" t="s" s="2">
-        <v>817</v>
+        <v>819</v>
       </c>
       <c r="AP138" t="s" s="2">
         <v>79</v>
@@ -19738,10 +19744,10 @@
     </row>
     <row r="139" hidden="true">
       <c r="A139" t="s" s="2">
-        <v>818</v>
+        <v>820</v>
       </c>
       <c r="B139" t="s" s="2">
-        <v>818</v>
+        <v>820</v>
       </c>
       <c r="C139" s="2"/>
       <c r="D139" t="s" s="2">
@@ -19856,10 +19862,10 @@
     </row>
     <row r="140" hidden="true">
       <c r="A140" t="s" s="2">
-        <v>819</v>
+        <v>821</v>
       </c>
       <c r="B140" t="s" s="2">
-        <v>819</v>
+        <v>821</v>
       </c>
       <c r="C140" s="2"/>
       <c r="D140" t="s" s="2">
@@ -19976,14 +19982,14 @@
     </row>
     <row r="141" hidden="true">
       <c r="A141" t="s" s="2">
-        <v>820</v>
+        <v>822</v>
       </c>
       <c r="B141" t="s" s="2">
-        <v>820</v>
+        <v>822</v>
       </c>
       <c r="C141" s="2"/>
       <c r="D141" t="s" s="2">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="E141" s="2"/>
       <c r="F141" t="s" s="2">
@@ -20005,10 +20011,10 @@
         <v>137</v>
       </c>
       <c r="L141" t="s" s="2">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="M141" t="s" s="2">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="N141" t="s" s="2">
         <v>164</v>
@@ -20063,7 +20069,7 @@
         <v>79</v>
       </c>
       <c r="AF141" t="s" s="2">
-        <v>821</v>
+        <v>823</v>
       </c>
       <c r="AG141" t="s" s="2">
         <v>77</v>
@@ -20098,10 +20104,10 @@
     </row>
     <row r="142" hidden="true">
       <c r="A142" t="s" s="2">
-        <v>822</v>
+        <v>824</v>
       </c>
       <c r="B142" t="s" s="2">
-        <v>822</v>
+        <v>824</v>
       </c>
       <c r="C142" s="2"/>
       <c r="D142" t="s" s="2">
@@ -20124,16 +20130,16 @@
         <v>79</v>
       </c>
       <c r="K142" t="s" s="2">
-        <v>813</v>
+        <v>815</v>
       </c>
       <c r="L142" t="s" s="2">
-        <v>823</v>
+        <v>825</v>
       </c>
       <c r="M142" t="s" s="2">
-        <v>824</v>
+        <v>826</v>
       </c>
       <c r="N142" t="s" s="2">
-        <v>825</v>
+        <v>827</v>
       </c>
       <c r="O142" s="2"/>
       <c r="P142" t="s" s="2">
@@ -20183,7 +20189,7 @@
         <v>79</v>
       </c>
       <c r="AF142" t="s" s="2">
-        <v>822</v>
+        <v>824</v>
       </c>
       <c r="AG142" t="s" s="2">
         <v>77</v>
@@ -20210,7 +20216,7 @@
         <v>79</v>
       </c>
       <c r="AO142" t="s" s="2">
-        <v>826</v>
+        <v>828</v>
       </c>
       <c r="AP142" t="s" s="2">
         <v>79</v>
@@ -20218,10 +20224,10 @@
     </row>
     <row r="143" hidden="true">
       <c r="A143" t="s" s="2">
-        <v>827</v>
+        <v>829</v>
       </c>
       <c r="B143" t="s" s="2">
-        <v>827</v>
+        <v>829</v>
       </c>
       <c r="C143" s="2"/>
       <c r="D143" t="s" s="2">
@@ -20336,10 +20342,10 @@
     </row>
     <row r="144" hidden="true">
       <c r="A144" t="s" s="2">
-        <v>828</v>
+        <v>830</v>
       </c>
       <c r="B144" t="s" s="2">
-        <v>828</v>
+        <v>830</v>
       </c>
       <c r="C144" s="2"/>
       <c r="D144" t="s" s="2">
@@ -20456,14 +20462,14 @@
     </row>
     <row r="145" hidden="true">
       <c r="A145" t="s" s="2">
-        <v>829</v>
+        <v>831</v>
       </c>
       <c r="B145" t="s" s="2">
-        <v>829</v>
+        <v>831</v>
       </c>
       <c r="C145" s="2"/>
       <c r="D145" t="s" s="2">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="E145" s="2"/>
       <c r="F145" t="s" s="2">
@@ -20485,10 +20491,10 @@
         <v>137</v>
       </c>
       <c r="L145" t="s" s="2">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="M145" t="s" s="2">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="N145" t="s" s="2">
         <v>164</v>
@@ -20543,7 +20549,7 @@
         <v>79</v>
       </c>
       <c r="AF145" t="s" s="2">
-        <v>821</v>
+        <v>823</v>
       </c>
       <c r="AG145" t="s" s="2">
         <v>77</v>
@@ -20578,10 +20584,10 @@
     </row>
     <row r="146" hidden="true">
       <c r="A146" t="s" s="2">
-        <v>830</v>
+        <v>832</v>
       </c>
       <c r="B146" t="s" s="2">
-        <v>830</v>
+        <v>832</v>
       </c>
       <c r="C146" s="2"/>
       <c r="D146" t="s" s="2">
@@ -20604,13 +20610,13 @@
         <v>79</v>
       </c>
       <c r="K146" t="s" s="2">
-        <v>800</v>
+        <v>802</v>
       </c>
       <c r="L146" t="s" s="2">
-        <v>831</v>
+        <v>833</v>
       </c>
       <c r="M146" t="s" s="2">
-        <v>832</v>
+        <v>834</v>
       </c>
       <c r="N146" s="2"/>
       <c r="O146" s="2"/>
@@ -20661,7 +20667,7 @@
         <v>79</v>
       </c>
       <c r="AF146" t="s" s="2">
-        <v>830</v>
+        <v>832</v>
       </c>
       <c r="AG146" t="s" s="2">
         <v>77</v>
@@ -20688,7 +20694,7 @@
         <v>79</v>
       </c>
       <c r="AO146" t="s" s="2">
-        <v>833</v>
+        <v>835</v>
       </c>
       <c r="AP146" t="s" s="2">
         <v>79</v>
@@ -20696,10 +20702,10 @@
     </row>
     <row r="147" hidden="true">
       <c r="A147" t="s" s="2">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="B147" t="s" s="2">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="C147" s="2"/>
       <c r="D147" t="s" s="2">
@@ -20722,13 +20728,13 @@
         <v>79</v>
       </c>
       <c r="K147" t="s" s="2">
-        <v>835</v>
+        <v>837</v>
       </c>
       <c r="L147" t="s" s="2">
-        <v>836</v>
+        <v>838</v>
       </c>
       <c r="M147" t="s" s="2">
-        <v>837</v>
+        <v>839</v>
       </c>
       <c r="N147" s="2"/>
       <c r="O147" s="2"/>
@@ -20779,7 +20785,7 @@
         <v>79</v>
       </c>
       <c r="AF147" t="s" s="2">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="AG147" t="s" s="2">
         <v>77</v>
@@ -20806,7 +20812,7 @@
         <v>79</v>
       </c>
       <c r="AO147" t="s" s="2">
-        <v>838</v>
+        <v>840</v>
       </c>
       <c r="AP147" t="s" s="2">
         <v>79</v>
@@ -20814,10 +20820,10 @@
     </row>
     <row r="148" hidden="true">
       <c r="A148" t="s" s="2">
-        <v>839</v>
+        <v>841</v>
       </c>
       <c r="B148" t="s" s="2">
-        <v>839</v>
+        <v>841</v>
       </c>
       <c r="C148" s="2"/>
       <c r="D148" t="s" s="2">
@@ -20840,13 +20846,13 @@
         <v>79</v>
       </c>
       <c r="K148" t="s" s="2">
-        <v>835</v>
+        <v>837</v>
       </c>
       <c r="L148" t="s" s="2">
-        <v>840</v>
+        <v>842</v>
       </c>
       <c r="M148" t="s" s="2">
-        <v>841</v>
+        <v>843</v>
       </c>
       <c r="N148" s="2"/>
       <c r="O148" s="2"/>
@@ -20897,7 +20903,7 @@
         <v>79</v>
       </c>
       <c r="AF148" t="s" s="2">
-        <v>839</v>
+        <v>841</v>
       </c>
       <c r="AG148" t="s" s="2">
         <v>77</v>
@@ -20924,7 +20930,7 @@
         <v>79</v>
       </c>
       <c r="AO148" t="s" s="2">
-        <v>838</v>
+        <v>840</v>
       </c>
       <c r="AP148" t="s" s="2">
         <v>79</v>
@@ -20932,10 +20938,10 @@
     </row>
     <row r="149" hidden="true">
       <c r="A149" t="s" s="2">
-        <v>842</v>
+        <v>844</v>
       </c>
       <c r="B149" t="s" s="2">
-        <v>842</v>
+        <v>844</v>
       </c>
       <c r="C149" s="2"/>
       <c r="D149" t="s" s="2">
@@ -20961,16 +20967,16 @@
         <v>229</v>
       </c>
       <c r="L149" t="s" s="2">
-        <v>843</v>
+        <v>845</v>
       </c>
       <c r="M149" t="s" s="2">
-        <v>844</v>
+        <v>846</v>
       </c>
       <c r="N149" t="s" s="2">
-        <v>845</v>
+        <v>847</v>
       </c>
       <c r="O149" t="s" s="2">
-        <v>846</v>
+        <v>848</v>
       </c>
       <c r="P149" t="s" s="2">
         <v>79</v>
@@ -21019,7 +21025,7 @@
         <v>79</v>
       </c>
       <c r="AF149" t="s" s="2">
-        <v>842</v>
+        <v>844</v>
       </c>
       <c r="AG149" t="s" s="2">
         <v>77</v>
@@ -21040,13 +21046,13 @@
         <v>79</v>
       </c>
       <c r="AM149" t="s" s="2">
-        <v>847</v>
+        <v>849</v>
       </c>
       <c r="AN149" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO149" t="s" s="2">
-        <v>848</v>
+        <v>850</v>
       </c>
       <c r="AP149" t="s" s="2">
         <v>79</v>
@@ -21054,10 +21060,10 @@
     </row>
     <row r="150" hidden="true">
       <c r="A150" t="s" s="2">
-        <v>849</v>
+        <v>851</v>
       </c>
       <c r="B150" t="s" s="2">
-        <v>849</v>
+        <v>851</v>
       </c>
       <c r="C150" s="2"/>
       <c r="D150" t="s" s="2">
@@ -21080,16 +21086,16 @@
         <v>79</v>
       </c>
       <c r="K150" t="s" s="2">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="L150" t="s" s="2">
-        <v>850</v>
+        <v>852</v>
       </c>
       <c r="M150" t="s" s="2">
-        <v>851</v>
+        <v>853</v>
       </c>
       <c r="N150" t="s" s="2">
-        <v>852</v>
+        <v>854</v>
       </c>
       <c r="O150" s="2"/>
       <c r="P150" t="s" s="2">
@@ -21139,7 +21145,7 @@
         <v>79</v>
       </c>
       <c r="AF150" t="s" s="2">
-        <v>849</v>
+        <v>851</v>
       </c>
       <c r="AG150" t="s" s="2">
         <v>77</v>
@@ -21160,24 +21166,24 @@
         <v>79</v>
       </c>
       <c r="AM150" t="s" s="2">
-        <v>853</v>
+        <v>855</v>
       </c>
       <c r="AN150" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO150" t="s" s="2">
-        <v>854</v>
+        <v>856</v>
       </c>
       <c r="AP150" t="s" s="2">
-        <v>855</v>
+        <v>857</v>
       </c>
     </row>
     <row r="151" hidden="true">
       <c r="A151" t="s" s="2">
-        <v>856</v>
+        <v>858</v>
       </c>
       <c r="B151" t="s" s="2">
-        <v>856</v>
+        <v>858</v>
       </c>
       <c r="C151" s="2"/>
       <c r="D151" t="s" s="2">
@@ -21200,13 +21206,13 @@
         <v>79</v>
       </c>
       <c r="K151" t="s" s="2">
-        <v>800</v>
+        <v>802</v>
       </c>
       <c r="L151" t="s" s="2">
-        <v>857</v>
+        <v>859</v>
       </c>
       <c r="M151" t="s" s="2">
-        <v>858</v>
+        <v>860</v>
       </c>
       <c r="N151" s="2"/>
       <c r="O151" s="2"/>
@@ -21257,7 +21263,7 @@
         <v>79</v>
       </c>
       <c r="AF151" t="s" s="2">
-        <v>856</v>
+        <v>858</v>
       </c>
       <c r="AG151" t="s" s="2">
         <v>77</v>
@@ -21278,24 +21284,24 @@
         <v>79</v>
       </c>
       <c r="AM151" t="s" s="2">
-        <v>859</v>
+        <v>861</v>
       </c>
       <c r="AN151" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO151" t="s" s="2">
-        <v>860</v>
+        <v>862</v>
       </c>
       <c r="AP151" t="s" s="2">
-        <v>861</v>
+        <v>863</v>
       </c>
     </row>
     <row r="152" hidden="true">
       <c r="A152" t="s" s="2">
-        <v>862</v>
+        <v>864</v>
       </c>
       <c r="B152" t="s" s="2">
-        <v>862</v>
+        <v>864</v>
       </c>
       <c r="C152" s="2"/>
       <c r="D152" t="s" s="2">
@@ -21318,16 +21324,16 @@
         <v>79</v>
       </c>
       <c r="K152" t="s" s="2">
-        <v>835</v>
+        <v>837</v>
       </c>
       <c r="L152" t="s" s="2">
-        <v>863</v>
+        <v>865</v>
       </c>
       <c r="M152" t="s" s="2">
-        <v>864</v>
+        <v>866</v>
       </c>
       <c r="N152" t="s" s="2">
-        <v>865</v>
+        <v>867</v>
       </c>
       <c r="O152" s="2"/>
       <c r="P152" t="s" s="2">
@@ -21377,7 +21383,7 @@
         <v>79</v>
       </c>
       <c r="AF152" t="s" s="2">
-        <v>862</v>
+        <v>864</v>
       </c>
       <c r="AG152" t="s" s="2">
         <v>77</v>
@@ -21398,13 +21404,13 @@
         <v>79</v>
       </c>
       <c r="AM152" t="s" s="2">
-        <v>866</v>
+        <v>868</v>
       </c>
       <c r="AN152" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO152" t="s" s="2">
-        <v>867</v>
+        <v>869</v>
       </c>
       <c r="AP152" t="s" s="2">
         <v>79</v>
@@ -21412,10 +21418,10 @@
     </row>
     <row r="153" hidden="true">
       <c r="A153" t="s" s="2">
-        <v>868</v>
+        <v>870</v>
       </c>
       <c r="B153" t="s" s="2">
-        <v>868</v>
+        <v>870</v>
       </c>
       <c r="C153" s="2"/>
       <c r="D153" t="s" s="2">
@@ -21441,10 +21447,10 @@
         <v>236</v>
       </c>
       <c r="L153" t="s" s="2">
-        <v>869</v>
+        <v>871</v>
       </c>
       <c r="M153" t="s" s="2">
-        <v>870</v>
+        <v>872</v>
       </c>
       <c r="N153" s="2"/>
       <c r="O153" s="2"/>
@@ -21495,7 +21501,7 @@
         <v>79</v>
       </c>
       <c r="AF153" t="s" s="2">
-        <v>868</v>
+        <v>870</v>
       </c>
       <c r="AG153" t="s" s="2">
         <v>77</v>
@@ -21522,7 +21528,7 @@
         <v>417</v>
       </c>
       <c r="AO153" t="s" s="2">
-        <v>871</v>
+        <v>873</v>
       </c>
       <c r="AP153" t="s" s="2">
         <v>79</v>
@@ -21530,10 +21536,10 @@
     </row>
     <row r="154" hidden="true">
       <c r="A154" t="s" s="2">
-        <v>872</v>
+        <v>874</v>
       </c>
       <c r="B154" t="s" s="2">
-        <v>872</v>
+        <v>874</v>
       </c>
       <c r="C154" s="2"/>
       <c r="D154" t="s" s="2">
@@ -21559,10 +21565,10 @@
         <v>445</v>
       </c>
       <c r="L154" t="s" s="2">
-        <v>873</v>
+        <v>875</v>
       </c>
       <c r="M154" t="s" s="2">
-        <v>874</v>
+        <v>876</v>
       </c>
       <c r="N154" s="2"/>
       <c r="O154" s="2"/>
@@ -21613,7 +21619,7 @@
         <v>79</v>
       </c>
       <c r="AF154" t="s" s="2">
-        <v>872</v>
+        <v>874</v>
       </c>
       <c r="AG154" t="s" s="2">
         <v>77</v>
@@ -21640,7 +21646,7 @@
         <v>79</v>
       </c>
       <c r="AO154" t="s" s="2">
-        <v>875</v>
+        <v>877</v>
       </c>
       <c r="AP154" t="s" s="2">
         <v>79</v>
@@ -21648,10 +21654,10 @@
     </row>
     <row r="155" hidden="true">
       <c r="A155" t="s" s="2">
-        <v>876</v>
+        <v>878</v>
       </c>
       <c r="B155" t="s" s="2">
-        <v>876</v>
+        <v>878</v>
       </c>
       <c r="C155" s="2"/>
       <c r="D155" t="s" s="2">
@@ -21677,10 +21683,10 @@
         <v>199</v>
       </c>
       <c r="L155" t="s" s="2">
-        <v>877</v>
+        <v>879</v>
       </c>
       <c r="M155" t="s" s="2">
-        <v>878</v>
+        <v>880</v>
       </c>
       <c r="N155" s="2"/>
       <c r="O155" s="2"/>
@@ -21711,7 +21717,7 @@
       </c>
       <c r="Y155" s="2"/>
       <c r="Z155" t="s" s="2">
-        <v>879</v>
+        <v>881</v>
       </c>
       <c r="AA155" t="s" s="2">
         <v>79</v>
@@ -21729,7 +21735,7 @@
         <v>79</v>
       </c>
       <c r="AF155" t="s" s="2">
-        <v>876</v>
+        <v>878</v>
       </c>
       <c r="AG155" t="s" s="2">
         <v>77</v>
@@ -21756,7 +21762,7 @@
         <v>79</v>
       </c>
       <c r="AO155" t="s" s="2">
-        <v>880</v>
+        <v>882</v>
       </c>
       <c r="AP155" t="s" s="2">
         <v>79</v>
@@ -21764,10 +21770,10 @@
     </row>
     <row r="156" hidden="true">
       <c r="A156" t="s" s="2">
-        <v>881</v>
+        <v>883</v>
       </c>
       <c r="B156" t="s" s="2">
-        <v>881</v>
+        <v>883</v>
       </c>
       <c r="C156" s="2"/>
       <c r="D156" t="s" s="2">
@@ -21790,13 +21796,13 @@
         <v>79</v>
       </c>
       <c r="K156" t="s" s="2">
-        <v>813</v>
+        <v>815</v>
       </c>
       <c r="L156" t="s" s="2">
-        <v>882</v>
+        <v>884</v>
       </c>
       <c r="M156" t="s" s="2">
-        <v>883</v>
+        <v>885</v>
       </c>
       <c r="N156" s="2"/>
       <c r="O156" s="2"/>
@@ -21847,7 +21853,7 @@
         <v>79</v>
       </c>
       <c r="AF156" t="s" s="2">
-        <v>881</v>
+        <v>883</v>
       </c>
       <c r="AG156" t="s" s="2">
         <v>77</v>
@@ -21862,19 +21868,19 @@
         <v>102</v>
       </c>
       <c r="AK156" t="s" s="2">
-        <v>884</v>
+        <v>886</v>
       </c>
       <c r="AL156" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM156" t="s" s="2">
-        <v>885</v>
+        <v>887</v>
       </c>
       <c r="AN156" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO156" t="s" s="2">
-        <v>886</v>
+        <v>888</v>
       </c>
       <c r="AP156" t="s" s="2">
         <v>79</v>
@@ -21882,10 +21888,10 @@
     </row>
     <row r="157" hidden="true">
       <c r="A157" t="s" s="2">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="B157" t="s" s="2">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="C157" s="2"/>
       <c r="D157" t="s" s="2">
@@ -22000,10 +22006,10 @@
     </row>
     <row r="158" hidden="true">
       <c r="A158" t="s" s="2">
-        <v>888</v>
+        <v>890</v>
       </c>
       <c r="B158" t="s" s="2">
-        <v>888</v>
+        <v>890</v>
       </c>
       <c r="C158" s="2"/>
       <c r="D158" t="s" s="2">
@@ -22120,14 +22126,14 @@
     </row>
     <row r="159" hidden="true">
       <c r="A159" t="s" s="2">
-        <v>889</v>
+        <v>891</v>
       </c>
       <c r="B159" t="s" s="2">
-        <v>889</v>
+        <v>891</v>
       </c>
       <c r="C159" s="2"/>
       <c r="D159" t="s" s="2">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="E159" s="2"/>
       <c r="F159" t="s" s="2">
@@ -22149,10 +22155,10 @@
         <v>137</v>
       </c>
       <c r="L159" t="s" s="2">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="M159" t="s" s="2">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="N159" t="s" s="2">
         <v>164</v>
@@ -22207,7 +22213,7 @@
         <v>79</v>
       </c>
       <c r="AF159" t="s" s="2">
-        <v>821</v>
+        <v>823</v>
       </c>
       <c r="AG159" t="s" s="2">
         <v>77</v>
@@ -22242,10 +22248,10 @@
     </row>
     <row r="160" hidden="true">
       <c r="A160" t="s" s="2">
-        <v>890</v>
+        <v>892</v>
       </c>
       <c r="B160" t="s" s="2">
-        <v>890</v>
+        <v>892</v>
       </c>
       <c r="C160" s="2"/>
       <c r="D160" t="s" s="2">
@@ -22268,16 +22274,16 @@
         <v>79</v>
       </c>
       <c r="K160" t="s" s="2">
-        <v>891</v>
+        <v>893</v>
       </c>
       <c r="L160" t="s" s="2">
-        <v>892</v>
+        <v>894</v>
       </c>
       <c r="M160" t="s" s="2">
-        <v>893</v>
+        <v>895</v>
       </c>
       <c r="N160" t="s" s="2">
-        <v>894</v>
+        <v>896</v>
       </c>
       <c r="O160" s="2"/>
       <c r="P160" t="s" s="2">
@@ -22303,13 +22309,13 @@
         <v>79</v>
       </c>
       <c r="X160" t="s" s="2">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="Y160" t="s" s="2">
-        <v>895</v>
+        <v>897</v>
       </c>
       <c r="Z160" t="s" s="2">
-        <v>896</v>
+        <v>898</v>
       </c>
       <c r="AA160" t="s" s="2">
         <v>79</v>
@@ -22327,7 +22333,7 @@
         <v>79</v>
       </c>
       <c r="AF160" t="s" s="2">
-        <v>890</v>
+        <v>892</v>
       </c>
       <c r="AG160" t="s" s="2">
         <v>90</v>
@@ -22348,24 +22354,24 @@
         <v>79</v>
       </c>
       <c r="AM160" t="s" s="2">
-        <v>885</v>
+        <v>887</v>
       </c>
       <c r="AN160" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO160" t="s" s="2">
-        <v>897</v>
+        <v>899</v>
       </c>
       <c r="AP160" t="s" s="2">
-        <v>898</v>
+        <v>900</v>
       </c>
     </row>
     <row r="161" hidden="true">
       <c r="A161" t="s" s="2">
-        <v>899</v>
+        <v>901</v>
       </c>
       <c r="B161" t="s" s="2">
-        <v>899</v>
+        <v>901</v>
       </c>
       <c r="C161" s="2"/>
       <c r="D161" t="s" s="2">
@@ -22391,10 +22397,10 @@
         <v>199</v>
       </c>
       <c r="L161" t="s" s="2">
-        <v>900</v>
+        <v>902</v>
       </c>
       <c r="M161" t="s" s="2">
-        <v>901</v>
+        <v>903</v>
       </c>
       <c r="N161" s="2"/>
       <c r="O161" s="2"/>
@@ -22424,10 +22430,10 @@
         <v>288</v>
       </c>
       <c r="Y161" t="s" s="2">
-        <v>902</v>
+        <v>904</v>
       </c>
       <c r="Z161" t="s" s="2">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="AA161" t="s" s="2">
         <v>79</v>
@@ -22445,7 +22451,7 @@
         <v>79</v>
       </c>
       <c r="AF161" t="s" s="2">
-        <v>899</v>
+        <v>901</v>
       </c>
       <c r="AG161" t="s" s="2">
         <v>77</v>
@@ -22472,18 +22478,18 @@
         <v>79</v>
       </c>
       <c r="AO161" t="s" s="2">
-        <v>904</v>
+        <v>906</v>
       </c>
       <c r="AP161" t="s" s="2">
-        <v>905</v>
+        <v>907</v>
       </c>
     </row>
     <row r="162" hidden="true">
       <c r="A162" t="s" s="2">
-        <v>906</v>
+        <v>908</v>
       </c>
       <c r="B162" t="s" s="2">
-        <v>906</v>
+        <v>908</v>
       </c>
       <c r="C162" s="2"/>
       <c r="D162" t="s" s="2">
@@ -22506,16 +22512,16 @@
         <v>79</v>
       </c>
       <c r="K162" t="s" s="2">
-        <v>907</v>
+        <v>909</v>
       </c>
       <c r="L162" t="s" s="2">
-        <v>908</v>
+        <v>910</v>
       </c>
       <c r="M162" t="s" s="2">
-        <v>909</v>
+        <v>911</v>
       </c>
       <c r="N162" t="s" s="2">
-        <v>910</v>
+        <v>912</v>
       </c>
       <c r="O162" s="2"/>
       <c r="P162" t="s" s="2">
@@ -22565,7 +22571,7 @@
         <v>79</v>
       </c>
       <c r="AF162" t="s" s="2">
-        <v>906</v>
+        <v>908</v>
       </c>
       <c r="AG162" t="s" s="2">
         <v>77</v>
@@ -22583,7 +22589,7 @@
         <v>79</v>
       </c>
       <c r="AL162" t="s" s="2">
-        <v>911</v>
+        <v>913</v>
       </c>
       <c r="AM162" t="s" s="2">
         <v>79</v>
@@ -22592,7 +22598,7 @@
         <v>79</v>
       </c>
       <c r="AO162" t="s" s="2">
-        <v>912</v>
+        <v>914</v>
       </c>
       <c r="AP162" t="s" s="2">
         <v>79</v>

--- a/mapping-pn13/ig/StructureDefinition-oncofaire-medicationrequest-element.xlsx
+++ b/mapping-pn13/ig/StructureDefinition-oncofaire-medicationrequest-element.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6156" uniqueCount="915">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6156" uniqueCount="912">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-22T09:18:07+00:00</t>
+    <t>2024-04-22T13:59:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -467,20 +467,17 @@
 ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
-    <t>MedicationRequest.extension:oncofair-mr-element-form</t>
-  </si>
-  <si>
-    <t>oncofair-mr-element-form</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://ltsi.univ-rennes.fr/StructureDefinition/oncofair-mr-element-form}
+    <t>MedicationRequest.extension:oncofair-element-form</t>
+  </si>
+  <si>
+    <t>oncofair-element-form</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://ltsi.univ-rennes.fr/StructureDefinition/oncofair-element-form}
 </t>
   </si>
   <si>
     <t>Extension créée dans le cadre d'OncoFAIR</t>
-  </si>
-  <si>
-    <t>Forme</t>
   </si>
   <si>
     <t>MedicationRequest.extension:oncofair-mr-element-supply</t>
@@ -493,9 +490,6 @@
 </t>
   </si>
   <si>
-    <t>Fourniture</t>
-  </si>
-  <si>
     <t>MedicationRequest.extension:oncofair-mr-element-rank</t>
   </si>
   <si>
@@ -504,9 +498,6 @@
   <si>
     <t xml:space="preserve">Extension {http://ltsi.univ-rennes.fr/StructureDefinition/oncofair-mr-element-rank}
 </t>
-  </si>
-  <si>
-    <t>Rang élément prescription</t>
   </si>
   <si>
     <t>MedicationRequest.extension:oncofair-mr-element-gonogo</t>
@@ -4416,7 +4407,7 @@
         <v>143</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>148</v>
+        <v>79</v>
       </c>
       <c r="AL10" t="s" s="2">
         <v>79</v>
@@ -4436,13 +4427,13 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B11" t="s" s="2">
         <v>136</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D11" t="s" s="2">
         <v>79</v>
@@ -4464,7 +4455,7 @@
         <v>79</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="L11" t="s" s="2">
         <v>138</v>
@@ -4536,7 +4527,7 @@
         <v>143</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>152</v>
+        <v>79</v>
       </c>
       <c r="AL11" t="s" s="2">
         <v>79</v>
@@ -4556,13 +4547,13 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B12" t="s" s="2">
         <v>136</v>
       </c>
       <c r="C12" t="s" s="2">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D12" t="s" s="2">
         <v>79</v>
@@ -4584,7 +4575,7 @@
         <v>79</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="L12" t="s" s="2">
         <v>138</v>
@@ -4656,7 +4647,7 @@
         <v>143</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>156</v>
+        <v>79</v>
       </c>
       <c r="AL12" t="s" s="2">
         <v>79</v>
@@ -4676,13 +4667,13 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B13" t="s" s="2">
         <v>136</v>
       </c>
       <c r="C13" t="s" s="2">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D13" t="s" s="2">
         <v>79</v>
@@ -4704,7 +4695,7 @@
         <v>79</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="L13" t="s" s="2">
         <v>138</v>
@@ -4796,14 +4787,14 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
@@ -4825,16 +4816,16 @@
         <v>137</v>
       </c>
       <c r="L14" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="M14" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="N14" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="O14" t="s" s="2">
         <v>162</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="N14" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="O14" t="s" s="2">
-        <v>165</v>
       </c>
       <c r="P14" t="s" s="2">
         <v>79</v>
@@ -4883,7 +4874,7 @@
         <v>79</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>77</v>
@@ -4918,10 +4909,10 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -4944,16 +4935,16 @@
         <v>79</v>
       </c>
       <c r="K15" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="L15" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="M15" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="N15" t="s" s="2">
         <v>168</v>
-      </c>
-      <c r="L15" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="M15" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>171</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -5003,7 +4994,7 @@
         <v>79</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>77</v>
@@ -5018,30 +5009,30 @@
         <v>102</v>
       </c>
       <c r="AK15" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="AL15" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="AM15" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="AN15" t="s" s="2">
         <v>172</v>
       </c>
-      <c r="AL15" t="s" s="2">
+      <c r="AO15" t="s" s="2">
         <v>173</v>
       </c>
-      <c r="AM15" t="s" s="2">
+      <c r="AP15" t="s" s="2">
         <v>174</v>
-      </c>
-      <c r="AN15" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="AO15" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="AP15" t="s" s="2">
-        <v>177</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -5067,10 +5058,10 @@
         <v>92</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -5121,7 +5112,7 @@
         <v>79</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>77</v>
@@ -5130,7 +5121,7 @@
         <v>90</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="AJ16" t="s" s="2">
         <v>79</v>
@@ -5148,7 +5139,7 @@
         <v>79</v>
       </c>
       <c r="AO16" t="s" s="2">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="AP16" t="s" s="2">
         <v>79</v>
@@ -5156,14 +5147,14 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
@@ -5185,13 +5176,13 @@
         <v>137</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -5232,7 +5223,7 @@
         <v>140</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="AD17" t="s" s="2">
         <v>79</v>
@@ -5241,7 +5232,7 @@
         <v>141</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>77</v>
@@ -5268,7 +5259,7 @@
         <v>79</v>
       </c>
       <c r="AO17" t="s" s="2">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="AP17" t="s" s="2">
         <v>79</v>
@@ -5276,10 +5267,10 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -5305,16 +5296,16 @@
         <v>110</v>
       </c>
       <c r="L18" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="M18" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="N18" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="O18" t="s" s="2">
         <v>190</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="O18" t="s" s="2">
-        <v>193</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>79</v>
@@ -5342,10 +5333,10 @@
         <v>114</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="AA18" t="s" s="2">
         <v>79</v>
@@ -5363,7 +5354,7 @@
         <v>79</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>77</v>
@@ -5390,7 +5381,7 @@
         <v>79</v>
       </c>
       <c r="AO18" t="s" s="2">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="AP18" t="s" s="2">
         <v>135</v>
@@ -5398,10 +5389,10 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -5424,19 +5415,19 @@
         <v>91</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="L19" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="M19" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="N19" t="s" s="2">
         <v>199</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="O19" t="s" s="2">
         <v>200</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="O19" t="s" s="2">
-        <v>203</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>79</v>
@@ -5461,31 +5452,31 @@
         <v>79</v>
       </c>
       <c r="X19" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="Y19" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="Z19" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="AA19" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB19" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC19" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD19" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE19" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF19" t="s" s="2">
         <v>204</v>
-      </c>
-      <c r="Y19" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="Z19" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="AA19" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB19" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC19" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD19" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE19" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF19" t="s" s="2">
-        <v>207</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>77</v>
@@ -5512,18 +5503,18 @@
         <v>79</v>
       </c>
       <c r="AO19" t="s" s="2">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="AP19" t="s" s="2">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -5549,16 +5540,16 @@
         <v>104</v>
       </c>
       <c r="L20" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="M20" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="N20" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="O20" t="s" s="2">
         <v>210</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="O20" t="s" s="2">
-        <v>213</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>79</v>
@@ -5571,7 +5562,7 @@
         <v>79</v>
       </c>
       <c r="T20" t="s" s="2">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="U20" t="s" s="2">
         <v>79</v>
@@ -5607,7 +5598,7 @@
         <v>79</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>77</v>
@@ -5634,18 +5625,18 @@
         <v>79</v>
       </c>
       <c r="AO20" t="s" s="2">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="AP20" t="s" s="2">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -5668,16 +5659,16 @@
         <v>91</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="L21" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="M21" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="N21" t="s" s="2">
         <v>219</v>
-      </c>
-      <c r="L21" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>222</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -5691,7 +5682,7 @@
         <v>79</v>
       </c>
       <c r="T21" t="s" s="2">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="U21" t="s" s="2">
         <v>79</v>
@@ -5727,7 +5718,7 @@
         <v>79</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>77</v>
@@ -5736,7 +5727,7 @@
         <v>90</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="AJ21" t="s" s="2">
         <v>102</v>
@@ -5754,18 +5745,18 @@
         <v>79</v>
       </c>
       <c r="AO21" t="s" s="2">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="AP21" t="s" s="2">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -5788,13 +5779,13 @@
         <v>91</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -5845,7 +5836,7 @@
         <v>79</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>77</v>
@@ -5872,18 +5863,18 @@
         <v>79</v>
       </c>
       <c r="AO22" t="s" s="2">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="AP22" t="s" s="2">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -5906,16 +5897,16 @@
         <v>91</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="L23" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="M23" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="N23" t="s" s="2">
         <v>236</v>
-      </c>
-      <c r="L23" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>239</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -5965,7 +5956,7 @@
         <v>79</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>77</v>
@@ -5992,18 +5983,18 @@
         <v>79</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="AP23" t="s" s="2">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -6026,13 +6017,13 @@
         <v>91</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -6083,7 +6074,7 @@
         <v>79</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>77</v>
@@ -6098,10 +6089,10 @@
         <v>102</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>79</v>
@@ -6110,7 +6101,7 @@
         <v>79</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="AP24" t="s" s="2">
         <v>79</v>
@@ -6118,10 +6109,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -6144,13 +6135,13 @@
         <v>79</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -6201,7 +6192,7 @@
         <v>79</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>77</v>
@@ -6219,16 +6210,16 @@
         <v>79</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="AP25" t="s" s="2">
         <v>79</v>
@@ -6236,10 +6227,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -6262,17 +6253,17 @@
         <v>91</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>79</v>
@@ -6321,7 +6312,7 @@
         <v>79</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>77</v>
@@ -6336,10 +6327,10 @@
         <v>102</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>79</v>
@@ -6348,7 +6339,7 @@
         <v>79</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="AP26" t="s" s="2">
         <v>79</v>
@@ -6356,10 +6347,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -6385,10 +6376,10 @@
         <v>92</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -6439,7 +6430,7 @@
         <v>79</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>77</v>
@@ -6448,7 +6439,7 @@
         <v>90</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="AJ27" t="s" s="2">
         <v>79</v>
@@ -6466,7 +6457,7 @@
         <v>79</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="AP27" t="s" s="2">
         <v>79</v>
@@ -6474,14 +6465,14 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
@@ -6503,13 +6494,13 @@
         <v>137</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -6550,7 +6541,7 @@
         <v>140</v>
       </c>
       <c r="AC28" t="s" s="2">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="AD28" t="s" s="2">
         <v>79</v>
@@ -6559,7 +6550,7 @@
         <v>141</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>77</v>
@@ -6586,7 +6577,7 @@
         <v>79</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="AP28" t="s" s="2">
         <v>79</v>
@@ -6594,10 +6585,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -6623,16 +6614,16 @@
         <v>110</v>
       </c>
       <c r="L29" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="M29" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="O29" t="s" s="2">
         <v>190</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="O29" t="s" s="2">
-        <v>193</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>79</v>
@@ -6660,10 +6651,10 @@
         <v>114</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>79</v>
@@ -6681,7 +6672,7 @@
         <v>79</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>77</v>
@@ -6708,7 +6699,7 @@
         <v>79</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="AP29" t="s" s="2">
         <v>135</v>
@@ -6716,10 +6707,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -6742,19 +6733,19 @@
         <v>91</v>
       </c>
       <c r="K30" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="L30" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="M30" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="N30" t="s" s="2">
         <v>199</v>
       </c>
-      <c r="L30" t="s" s="2">
+      <c r="O30" t="s" s="2">
         <v>200</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="O30" t="s" s="2">
-        <v>203</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>79</v>
@@ -6779,31 +6770,31 @@
         <v>79</v>
       </c>
       <c r="X30" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="Y30" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="Z30" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="AA30" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB30" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC30" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD30" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE30" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF30" t="s" s="2">
         <v>204</v>
-      </c>
-      <c r="Y30" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="Z30" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="AA30" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB30" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC30" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD30" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE30" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF30" t="s" s="2">
-        <v>207</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>77</v>
@@ -6830,18 +6821,18 @@
         <v>79</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="AP30" t="s" s="2">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -6867,16 +6858,16 @@
         <v>104</v>
       </c>
       <c r="L31" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="M31" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="N31" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="O31" t="s" s="2">
         <v>210</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="O31" t="s" s="2">
-        <v>213</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>79</v>
@@ -6889,7 +6880,7 @@
         <v>79</v>
       </c>
       <c r="T31" t="s" s="2">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="U31" t="s" s="2">
         <v>79</v>
@@ -6925,7 +6916,7 @@
         <v>79</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>77</v>
@@ -6952,18 +6943,18 @@
         <v>79</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="AP31" t="s" s="2">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -6986,16 +6977,16 @@
         <v>91</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="L32" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="M32" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="N32" t="s" s="2">
         <v>219</v>
-      </c>
-      <c r="L32" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>222</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -7009,7 +7000,7 @@
         <v>79</v>
       </c>
       <c r="T32" t="s" s="2">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="U32" t="s" s="2">
         <v>79</v>
@@ -7045,7 +7036,7 @@
         <v>79</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>77</v>
@@ -7054,7 +7045,7 @@
         <v>90</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>102</v>
@@ -7072,18 +7063,18 @@
         <v>79</v>
       </c>
       <c r="AO32" t="s" s="2">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="AP32" t="s" s="2">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -7106,13 +7097,13 @@
         <v>91</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -7163,7 +7154,7 @@
         <v>79</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>77</v>
@@ -7190,18 +7181,18 @@
         <v>79</v>
       </c>
       <c r="AO33" t="s" s="2">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="AP33" t="s" s="2">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -7224,16 +7215,16 @@
         <v>91</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="L34" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="M34" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="N34" t="s" s="2">
         <v>236</v>
-      </c>
-      <c r="L34" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>239</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
@@ -7283,7 +7274,7 @@
         <v>79</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>77</v>
@@ -7310,18 +7301,18 @@
         <v>79</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="AP34" t="s" s="2">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -7347,13 +7338,13 @@
         <v>110</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
@@ -7382,10 +7373,10 @@
         <v>114</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>79</v>
@@ -7403,7 +7394,7 @@
         <v>79</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>90</v>
@@ -7418,19 +7409,19 @@
         <v>102</v>
       </c>
       <c r="AK35" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="AL35" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="AM35" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="AN35" t="s" s="2">
         <v>279</v>
       </c>
-      <c r="AL35" t="s" s="2">
+      <c r="AO35" t="s" s="2">
         <v>280</v>
-      </c>
-      <c r="AM35" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="AN35" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="AO35" t="s" s="2">
-        <v>283</v>
       </c>
       <c r="AP35" t="s" s="2">
         <v>79</v>
@@ -7438,10 +7429,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -7464,16 +7455,16 @@
         <v>79</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
@@ -7499,13 +7490,13 @@
         <v>79</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>79</v>
@@ -7523,7 +7514,7 @@
         <v>79</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>77</v>
@@ -7541,7 +7532,7 @@
         <v>79</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>79</v>
@@ -7550,7 +7541,7 @@
         <v>79</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="AP36" t="s" s="2">
         <v>79</v>
@@ -7558,10 +7549,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -7584,13 +7575,13 @@
         <v>79</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -7641,7 +7632,7 @@
         <v>79</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>77</v>
@@ -7668,7 +7659,7 @@
         <v>79</v>
       </c>
       <c r="AO37" t="s" s="2">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="AP37" t="s" s="2">
         <v>79</v>
@@ -7676,10 +7667,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -7705,13 +7696,13 @@
         <v>110</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
@@ -7740,10 +7731,10 @@
         <v>114</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>79</v>
@@ -7761,7 +7752,7 @@
         <v>79</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>90</v>
@@ -7779,16 +7770,16 @@
         <v>79</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="AO38" t="s" s="2">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="AP38" t="s" s="2">
         <v>79</v>
@@ -7796,10 +7787,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -7822,16 +7813,16 @@
         <v>79</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
@@ -7857,13 +7848,13 @@
         <v>79</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>79</v>
@@ -7881,7 +7872,7 @@
         <v>79</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>77</v>
@@ -7902,13 +7893,13 @@
         <v>79</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="AO39" t="s" s="2">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="AP39" t="s" s="2">
         <v>79</v>
@@ -7916,10 +7907,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -7945,10 +7936,10 @@
         <v>110</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -7978,10 +7969,10 @@
         <v>114</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>79</v>
@@ -7999,7 +7990,7 @@
         <v>79</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>77</v>
@@ -8014,19 +8005,19 @@
         <v>102</v>
       </c>
       <c r="AK40" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="AL40" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="AM40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN40" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="AO40" t="s" s="2">
         <v>320</v>
-      </c>
-      <c r="AL40" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="AM40" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN40" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="AO40" t="s" s="2">
-        <v>323</v>
       </c>
       <c r="AP40" t="s" s="2">
         <v>79</v>
@@ -8034,10 +8025,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -8060,16 +8051,16 @@
         <v>91</v>
       </c>
       <c r="K41" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="L41" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="M41" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="N41" t="s" s="2">
         <v>325</v>
-      </c>
-      <c r="L41" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>328</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -8119,7 +8110,7 @@
         <v>79</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>77</v>
@@ -8146,7 +8137,7 @@
         <v>79</v>
       </c>
       <c r="AO41" t="s" s="2">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="AP41" t="s" s="2">
         <v>79</v>
@@ -8154,10 +8145,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -8180,16 +8171,16 @@
         <v>91</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="L42" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="M42" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="N42" t="s" s="2">
         <v>331</v>
-      </c>
-      <c r="L42" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>334</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -8215,13 +8206,13 @@
         <v>79</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>79</v>
@@ -8239,7 +8230,7 @@
         <v>79</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>90</v>
@@ -8257,27 +8248,27 @@
         <v>79</v>
       </c>
       <c r="AL42" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="AM42" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="AN42" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="AO42" t="s" s="2">
         <v>337</v>
       </c>
-      <c r="AM42" t="s" s="2">
+      <c r="AP42" t="s" s="2">
         <v>338</v>
-      </c>
-      <c r="AN42" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="AO42" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="AP42" t="s" s="2">
-        <v>341</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -8300,16 +8291,16 @@
         <v>91</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="L43" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="M43" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="N43" t="s" s="2">
         <v>343</v>
-      </c>
-      <c r="L43" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>346</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -8359,7 +8350,7 @@
         <v>79</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>90</v>
@@ -8377,27 +8368,27 @@
         <v>79</v>
       </c>
       <c r="AL43" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="AM43" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="AN43" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="AO43" t="s" s="2">
         <v>347</v>
       </c>
-      <c r="AM43" t="s" s="2">
+      <c r="AP43" t="s" s="2">
         <v>348</v>
-      </c>
-      <c r="AN43" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="AO43" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="AP43" t="s" s="2">
-        <v>351</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -8420,13 +8411,13 @@
         <v>79</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -8477,7 +8468,7 @@
         <v>79</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>77</v>
@@ -8504,7 +8495,7 @@
         <v>79</v>
       </c>
       <c r="AO44" t="s" s="2">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="AP44" t="s" s="2">
         <v>79</v>
@@ -8512,10 +8503,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -8538,16 +8529,16 @@
         <v>79</v>
       </c>
       <c r="K45" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="L45" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="M45" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="N45" t="s" s="2">
         <v>358</v>
-      </c>
-      <c r="L45" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>361</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
@@ -8597,7 +8588,7 @@
         <v>79</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>77</v>
@@ -8615,27 +8606,27 @@
         <v>79</v>
       </c>
       <c r="AL45" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="AM45" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="AN45" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="AO45" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="AP45" t="s" s="2">
         <v>362</v>
-      </c>
-      <c r="AM45" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="AN45" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="AO45" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="AP45" t="s" s="2">
-        <v>365</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -8658,16 +8649,16 @@
         <v>79</v>
       </c>
       <c r="K46" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="L46" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="M46" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="N46" t="s" s="2">
         <v>367</v>
-      </c>
-      <c r="L46" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>370</v>
       </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
@@ -8717,7 +8708,7 @@
         <v>79</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>77</v>
@@ -8735,16 +8726,16 @@
         <v>79</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="AO46" t="s" s="2">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="AP46" t="s" s="2">
         <v>79</v>
@@ -8752,10 +8743,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -8778,13 +8769,13 @@
         <v>91</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -8835,7 +8826,7 @@
         <v>79</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>77</v>
@@ -8853,27 +8844,27 @@
         <v>79</v>
       </c>
       <c r="AL47" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="AM47" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="AN47" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="AO47" t="s" s="2">
         <v>376</v>
       </c>
-      <c r="AM47" t="s" s="2">
+      <c r="AP47" t="s" s="2">
         <v>377</v>
-      </c>
-      <c r="AN47" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="AO47" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="AP47" t="s" s="2">
-        <v>380</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -8896,13 +8887,13 @@
         <v>91</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -8953,7 +8944,7 @@
         <v>79</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>77</v>
@@ -8968,19 +8959,19 @@
         <v>102</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="AO48" t="s" s="2">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="AP48" t="s" s="2">
         <v>79</v>
@@ -8988,10 +8979,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -9014,16 +9005,16 @@
         <v>91</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
@@ -9073,7 +9064,7 @@
         <v>79</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>77</v>
@@ -9100,7 +9091,7 @@
         <v>79</v>
       </c>
       <c r="AO49" t="s" s="2">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="AP49" t="s" s="2">
         <v>79</v>
@@ -9108,10 +9099,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -9134,16 +9125,16 @@
         <v>91</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
@@ -9169,13 +9160,13 @@
         <v>79</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>79</v>
@@ -9193,7 +9184,7 @@
         <v>79</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>77</v>
@@ -9211,7 +9202,7 @@
         <v>79</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>79</v>
@@ -9220,7 +9211,7 @@
         <v>79</v>
       </c>
       <c r="AO50" t="s" s="2">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="AP50" t="s" s="2">
         <v>79</v>
@@ -9228,10 +9219,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -9254,13 +9245,13 @@
         <v>79</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -9311,7 +9302,7 @@
         <v>79</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>77</v>
@@ -9329,16 +9320,16 @@
         <v>79</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="AO51" t="s" s="2">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="AP51" t="s" s="2">
         <v>79</v>
@@ -9346,10 +9337,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -9372,13 +9363,13 @@
         <v>79</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -9429,7 +9420,7 @@
         <v>79</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>77</v>
@@ -9444,7 +9435,7 @@
         <v>102</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>79</v>
@@ -9456,7 +9447,7 @@
         <v>79</v>
       </c>
       <c r="AO52" t="s" s="2">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="AP52" t="s" s="2">
         <v>79</v>
@@ -9464,10 +9455,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -9490,13 +9481,13 @@
         <v>79</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -9547,7 +9538,7 @@
         <v>79</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>77</v>
@@ -9571,10 +9562,10 @@
         <v>79</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="AO53" t="s" s="2">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="AP53" t="s" s="2">
         <v>79</v>
@@ -9582,10 +9573,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -9608,16 +9599,16 @@
         <v>79</v>
       </c>
       <c r="K54" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="L54" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="M54" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="N54" t="s" s="2">
         <v>420</v>
-      </c>
-      <c r="L54" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>423</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
@@ -9643,13 +9634,13 @@
         <v>79</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="Z54" t="s" s="2">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="AA54" t="s" s="2">
         <v>79</v>
@@ -9667,7 +9658,7 @@
         <v>79</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>77</v>
@@ -9685,27 +9676,27 @@
         <v>79</v>
       </c>
       <c r="AL54" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="AM54" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="AN54" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="AO54" t="s" s="2">
         <v>426</v>
       </c>
-      <c r="AM54" t="s" s="2">
+      <c r="AP54" t="s" s="2">
         <v>427</v>
-      </c>
-      <c r="AN54" t="s" s="2">
-        <v>428</v>
-      </c>
-      <c r="AO54" t="s" s="2">
-        <v>429</v>
-      </c>
-      <c r="AP54" t="s" s="2">
-        <v>430</v>
       </c>
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -9728,16 +9719,16 @@
         <v>79</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
@@ -9763,13 +9754,13 @@
         <v>79</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="AA55" t="s" s="2">
         <v>79</v>
@@ -9787,7 +9778,7 @@
         <v>79</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>77</v>
@@ -9814,7 +9805,7 @@
         <v>79</v>
       </c>
       <c r="AO55" t="s" s="2">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="AP55" t="s" s="2">
         <v>79</v>
@@ -9822,10 +9813,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -9848,13 +9839,13 @@
         <v>79</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -9905,7 +9896,7 @@
         <v>79</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>77</v>
@@ -9923,7 +9914,7 @@
         <v>79</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>79</v>
@@ -9932,7 +9923,7 @@
         <v>79</v>
       </c>
       <c r="AO56" t="s" s="2">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="AP56" t="s" s="2">
         <v>79</v>
@@ -9940,10 +9931,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -9966,13 +9957,13 @@
         <v>79</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -10011,7 +10002,7 @@
         <v>79</v>
       </c>
       <c r="AB57" t="s" s="2">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="AC57" s="2"/>
       <c r="AD57" t="s" s="2">
@@ -10021,7 +10012,7 @@
         <v>141</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>77</v>
@@ -10039,16 +10030,16 @@
         <v>79</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO57" t="s" s="2">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="AP57" t="s" s="2">
         <v>79</v>
@@ -10056,10 +10047,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -10085,10 +10076,10 @@
         <v>92</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -10139,7 +10130,7 @@
         <v>79</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>77</v>
@@ -10148,7 +10139,7 @@
         <v>90</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>79</v>
@@ -10166,7 +10157,7 @@
         <v>79</v>
       </c>
       <c r="AO58" t="s" s="2">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="AP58" t="s" s="2">
         <v>79</v>
@@ -10174,14 +10165,14 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
@@ -10203,13 +10194,13 @@
         <v>137</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
@@ -10250,7 +10241,7 @@
         <v>140</v>
       </c>
       <c r="AC59" t="s" s="2">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="AD59" t="s" s="2">
         <v>79</v>
@@ -10259,7 +10250,7 @@
         <v>141</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>77</v>
@@ -10286,7 +10277,7 @@
         <v>79</v>
       </c>
       <c r="AO59" t="s" s="2">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="AP59" t="s" s="2">
         <v>79</v>
@@ -10294,10 +10285,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -10320,16 +10311,16 @@
         <v>91</v>
       </c>
       <c r="K60" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="L60" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="M60" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="N60" t="s" s="2">
         <v>455</v>
-      </c>
-      <c r="L60" t="s" s="2">
-        <v>456</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>457</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>458</v>
       </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
@@ -10379,7 +10370,7 @@
         <v>79</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>77</v>
@@ -10406,7 +10397,7 @@
         <v>79</v>
       </c>
       <c r="AO60" t="s" s="2">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="AP60" t="s" s="2">
         <v>135</v>
@@ -10414,10 +10405,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -10440,13 +10431,13 @@
         <v>91</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -10497,7 +10488,7 @@
         <v>79</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>77</v>
@@ -10524,7 +10515,7 @@
         <v>79</v>
       </c>
       <c r="AO61" t="s" s="2">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="AP61" t="s" s="2">
         <v>135</v>
@@ -10532,10 +10523,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -10558,13 +10549,13 @@
         <v>91</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -10615,7 +10606,7 @@
         <v>79</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>90</v>
@@ -10630,7 +10621,7 @@
         <v>102</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>79</v>
@@ -10642,7 +10633,7 @@
         <v>79</v>
       </c>
       <c r="AO62" t="s" s="2">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="AP62" t="s" s="2">
         <v>135</v>
@@ -10650,13 +10641,13 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="C63" t="s" s="2">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="D63" t="s" s="2">
         <v>79</v>
@@ -10678,13 +10669,13 @@
         <v>79</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -10735,7 +10726,7 @@
         <v>79</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>77</v>
@@ -10750,19 +10741,19 @@
         <v>102</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>19</v>
+        <v>468</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO63" t="s" s="2">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="AP63" t="s" s="2">
         <v>79</v>
@@ -10770,10 +10761,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -10799,10 +10790,10 @@
         <v>92</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
@@ -10814,7 +10805,7 @@
         <v>79</v>
       </c>
       <c r="S64" t="s" s="2">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="T64" t="s" s="2">
         <v>79</v>
@@ -10853,7 +10844,7 @@
         <v>79</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>77</v>
@@ -10862,7 +10853,7 @@
         <v>90</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="AJ64" t="s" s="2">
         <v>79</v>
@@ -10880,7 +10871,7 @@
         <v>79</v>
       </c>
       <c r="AO64" t="s" s="2">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="AP64" t="s" s="2">
         <v>79</v>
@@ -10888,14 +10879,14 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
@@ -10917,13 +10908,13 @@
         <v>137</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
@@ -10964,7 +10955,7 @@
         <v>140</v>
       </c>
       <c r="AC65" t="s" s="2">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="AD65" t="s" s="2">
         <v>79</v>
@@ -10973,7 +10964,7 @@
         <v>141</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>77</v>
@@ -11000,7 +10991,7 @@
         <v>79</v>
       </c>
       <c r="AO65" t="s" s="2">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="AP65" t="s" s="2">
         <v>79</v>
@@ -11008,10 +10999,10 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -11034,16 +11025,16 @@
         <v>91</v>
       </c>
       <c r="K66" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="L66" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="M66" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="N66" t="s" s="2">
         <v>455</v>
-      </c>
-      <c r="L66" t="s" s="2">
-        <v>456</v>
-      </c>
-      <c r="M66" t="s" s="2">
-        <v>457</v>
-      </c>
-      <c r="N66" t="s" s="2">
-        <v>458</v>
       </c>
       <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
@@ -11093,7 +11084,7 @@
         <v>79</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>77</v>
@@ -11120,7 +11111,7 @@
         <v>79</v>
       </c>
       <c r="AO66" t="s" s="2">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="AP66" t="s" s="2">
         <v>135</v>
@@ -11128,10 +11119,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -11154,13 +11145,13 @@
         <v>91</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
@@ -11211,7 +11202,7 @@
         <v>79</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>77</v>
@@ -11238,7 +11229,7 @@
         <v>79</v>
       </c>
       <c r="AO67" t="s" s="2">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="AP67" t="s" s="2">
         <v>135</v>
@@ -11246,10 +11237,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -11272,13 +11263,13 @@
         <v>91</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
@@ -11329,7 +11320,7 @@
         <v>79</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>90</v>
@@ -11356,7 +11347,7 @@
         <v>79</v>
       </c>
       <c r="AO68" t="s" s="2">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="AP68" t="s" s="2">
         <v>135</v>
@@ -11364,13 +11355,13 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="C69" t="s" s="2">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="D69" t="s" s="2">
         <v>79</v>
@@ -11392,13 +11383,13 @@
         <v>79</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" s="2"/>
@@ -11449,7 +11440,7 @@
         <v>79</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>77</v>
@@ -11464,19 +11455,19 @@
         <v>102</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO69" t="s" s="2">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="AP69" t="s" s="2">
         <v>79</v>
@@ -11484,10 +11475,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -11513,10 +11504,10 @@
         <v>92</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" s="2"/>
@@ -11528,7 +11519,7 @@
         <v>79</v>
       </c>
       <c r="S70" t="s" s="2">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="T70" t="s" s="2">
         <v>79</v>
@@ -11567,7 +11558,7 @@
         <v>79</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>77</v>
@@ -11576,7 +11567,7 @@
         <v>90</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="AJ70" t="s" s="2">
         <v>79</v>
@@ -11594,7 +11585,7 @@
         <v>79</v>
       </c>
       <c r="AO70" t="s" s="2">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="AP70" t="s" s="2">
         <v>79</v>
@@ -11602,14 +11593,14 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" t="s" s="2">
@@ -11631,13 +11622,13 @@
         <v>137</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
@@ -11678,7 +11669,7 @@
         <v>140</v>
       </c>
       <c r="AC71" t="s" s="2">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="AD71" t="s" s="2">
         <v>79</v>
@@ -11687,7 +11678,7 @@
         <v>141</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>77</v>
@@ -11714,7 +11705,7 @@
         <v>79</v>
       </c>
       <c r="AO71" t="s" s="2">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="AP71" t="s" s="2">
         <v>79</v>
@@ -11722,10 +11713,10 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -11748,16 +11739,16 @@
         <v>91</v>
       </c>
       <c r="K72" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="L72" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="M72" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="N72" t="s" s="2">
         <v>455</v>
-      </c>
-      <c r="L72" t="s" s="2">
-        <v>456</v>
-      </c>
-      <c r="M72" t="s" s="2">
-        <v>457</v>
-      </c>
-      <c r="N72" t="s" s="2">
-        <v>458</v>
       </c>
       <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
@@ -11807,7 +11798,7 @@
         <v>79</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>77</v>
@@ -11834,7 +11825,7 @@
         <v>79</v>
       </c>
       <c r="AO72" t="s" s="2">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="AP72" t="s" s="2">
         <v>135</v>
@@ -11842,10 +11833,10 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -11868,13 +11859,13 @@
         <v>91</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" s="2"/>
@@ -11925,7 +11916,7 @@
         <v>79</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>77</v>
@@ -11952,7 +11943,7 @@
         <v>79</v>
       </c>
       <c r="AO73" t="s" s="2">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="AP73" t="s" s="2">
         <v>135</v>
@@ -11960,10 +11951,10 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -11986,13 +11977,13 @@
         <v>91</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" s="2"/>
@@ -12043,7 +12034,7 @@
         <v>79</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>90</v>
@@ -12070,7 +12061,7 @@
         <v>79</v>
       </c>
       <c r="AO74" t="s" s="2">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="AP74" t="s" s="2">
         <v>135</v>
@@ -12078,13 +12069,13 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="C75" t="s" s="2">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="D75" t="s" s="2">
         <v>79</v>
@@ -12106,13 +12097,13 @@
         <v>79</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" s="2"/>
@@ -12163,7 +12154,7 @@
         <v>79</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>77</v>
@@ -12178,19 +12169,19 @@
         <v>102</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO75" t="s" s="2">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="AP75" t="s" s="2">
         <v>79</v>
@@ -12198,10 +12189,10 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -12227,10 +12218,10 @@
         <v>92</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" s="2"/>
@@ -12242,7 +12233,7 @@
         <v>79</v>
       </c>
       <c r="S76" t="s" s="2">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="T76" t="s" s="2">
         <v>79</v>
@@ -12281,7 +12272,7 @@
         <v>79</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>77</v>
@@ -12290,7 +12281,7 @@
         <v>90</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="AJ76" t="s" s="2">
         <v>79</v>
@@ -12308,7 +12299,7 @@
         <v>79</v>
       </c>
       <c r="AO76" t="s" s="2">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="AP76" t="s" s="2">
         <v>79</v>
@@ -12316,14 +12307,14 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="E77" s="2"/>
       <c r="F77" t="s" s="2">
@@ -12345,13 +12336,13 @@
         <v>137</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="O77" s="2"/>
       <c r="P77" t="s" s="2">
@@ -12392,7 +12383,7 @@
         <v>140</v>
       </c>
       <c r="AC77" t="s" s="2">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="AD77" t="s" s="2">
         <v>79</v>
@@ -12401,7 +12392,7 @@
         <v>141</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>77</v>
@@ -12428,7 +12419,7 @@
         <v>79</v>
       </c>
       <c r="AO77" t="s" s="2">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="AP77" t="s" s="2">
         <v>79</v>
@@ -12436,10 +12427,10 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -12462,16 +12453,16 @@
         <v>91</v>
       </c>
       <c r="K78" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="L78" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="M78" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="N78" t="s" s="2">
         <v>455</v>
-      </c>
-      <c r="L78" t="s" s="2">
-        <v>456</v>
-      </c>
-      <c r="M78" t="s" s="2">
-        <v>457</v>
-      </c>
-      <c r="N78" t="s" s="2">
-        <v>458</v>
       </c>
       <c r="O78" s="2"/>
       <c r="P78" t="s" s="2">
@@ -12521,7 +12512,7 @@
         <v>79</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>77</v>
@@ -12548,7 +12539,7 @@
         <v>79</v>
       </c>
       <c r="AO78" t="s" s="2">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="AP78" t="s" s="2">
         <v>135</v>
@@ -12556,10 +12547,10 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -12582,13 +12573,13 @@
         <v>91</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" s="2"/>
@@ -12639,7 +12630,7 @@
         <v>79</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>77</v>
@@ -12666,7 +12657,7 @@
         <v>79</v>
       </c>
       <c r="AO79" t="s" s="2">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="AP79" t="s" s="2">
         <v>135</v>
@@ -12674,10 +12665,10 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -12700,13 +12691,13 @@
         <v>91</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" s="2"/>
@@ -12757,7 +12748,7 @@
         <v>79</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>90</v>
@@ -12784,7 +12775,7 @@
         <v>79</v>
       </c>
       <c r="AO80" t="s" s="2">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="AP80" t="s" s="2">
         <v>135</v>
@@ -12792,10 +12783,10 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -12818,17 +12809,17 @@
         <v>79</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" t="s" s="2">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="P81" t="s" s="2">
         <v>79</v>
@@ -12877,7 +12868,7 @@
         <v>79</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>77</v>
@@ -12904,7 +12895,7 @@
         <v>79</v>
       </c>
       <c r="AO81" t="s" s="2">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="AP81" t="s" s="2">
         <v>79</v>
@@ -12912,10 +12903,10 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -12938,13 +12929,13 @@
         <v>79</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="N82" s="2"/>
       <c r="O82" s="2"/>
@@ -12995,7 +12986,7 @@
         <v>79</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>77</v>
@@ -13022,7 +13013,7 @@
         <v>79</v>
       </c>
       <c r="AO82" t="s" s="2">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="AP82" t="s" s="2">
         <v>79</v>
@@ -13030,10 +13021,10 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -13059,10 +13050,10 @@
         <v>92</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="N83" s="2"/>
       <c r="O83" s="2"/>
@@ -13113,7 +13104,7 @@
         <v>79</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>77</v>
@@ -13122,7 +13113,7 @@
         <v>90</v>
       </c>
       <c r="AI83" t="s" s="2">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="AJ83" t="s" s="2">
         <v>79</v>
@@ -13140,7 +13131,7 @@
         <v>79</v>
       </c>
       <c r="AO83" t="s" s="2">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="AP83" t="s" s="2">
         <v>79</v>
@@ -13148,14 +13139,14 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="E84" s="2"/>
       <c r="F84" t="s" s="2">
@@ -13177,13 +13168,13 @@
         <v>137</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="O84" s="2"/>
       <c r="P84" t="s" s="2">
@@ -13224,7 +13215,7 @@
         <v>140</v>
       </c>
       <c r="AC84" t="s" s="2">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="AD84" t="s" s="2">
         <v>79</v>
@@ -13233,7 +13224,7 @@
         <v>141</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>77</v>
@@ -13260,7 +13251,7 @@
         <v>79</v>
       </c>
       <c r="AO84" t="s" s="2">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="AP84" t="s" s="2">
         <v>79</v>
@@ -13268,10 +13259,10 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -13294,16 +13285,16 @@
         <v>91</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="O85" s="2"/>
       <c r="P85" t="s" s="2">
@@ -13353,7 +13344,7 @@
         <v>79</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>77</v>
@@ -13362,13 +13353,13 @@
         <v>90</v>
       </c>
       <c r="AI85" t="s" s="2">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="AJ85" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="AL85" t="s" s="2">
         <v>79</v>
@@ -13380,18 +13371,18 @@
         <v>79</v>
       </c>
       <c r="AO85" t="s" s="2">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="AP85" t="s" s="2">
-        <v>515</v>
+        <v>512</v>
       </c>
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -13414,23 +13405,23 @@
         <v>91</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="O86" s="2"/>
       <c r="P86" t="s" s="2">
         <v>79</v>
       </c>
       <c r="Q86" t="s" s="2">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="R86" t="s" s="2">
         <v>79</v>
@@ -13475,7 +13466,7 @@
         <v>79</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>77</v>
@@ -13484,13 +13475,13 @@
         <v>90</v>
       </c>
       <c r="AI86" t="s" s="2">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="AJ86" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="AL86" t="s" s="2">
         <v>79</v>
@@ -13502,18 +13493,18 @@
         <v>79</v>
       </c>
       <c r="AO86" t="s" s="2">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="AP86" t="s" s="2">
-        <v>524</v>
+        <v>521</v>
       </c>
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -13536,16 +13527,16 @@
         <v>79</v>
       </c>
       <c r="K87" t="s" s="2">
+        <v>523</v>
+      </c>
+      <c r="L87" t="s" s="2">
+        <v>524</v>
+      </c>
+      <c r="M87" t="s" s="2">
+        <v>525</v>
+      </c>
+      <c r="N87" t="s" s="2">
         <v>526</v>
-      </c>
-      <c r="L87" t="s" s="2">
-        <v>527</v>
-      </c>
-      <c r="M87" t="s" s="2">
-        <v>528</v>
-      </c>
-      <c r="N87" t="s" s="2">
-        <v>529</v>
       </c>
       <c r="O87" s="2"/>
       <c r="P87" t="s" s="2">
@@ -13595,7 +13586,7 @@
         <v>79</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>77</v>
@@ -13622,7 +13613,7 @@
         <v>79</v>
       </c>
       <c r="AO87" t="s" s="2">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="AP87" t="s" s="2">
         <v>79</v>
@@ -13630,10 +13621,10 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -13659,10 +13650,10 @@
         <v>92</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="N88" s="2"/>
       <c r="O88" s="2"/>
@@ -13713,7 +13704,7 @@
         <v>79</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>77</v>
@@ -13722,7 +13713,7 @@
         <v>90</v>
       </c>
       <c r="AI88" t="s" s="2">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="AJ88" t="s" s="2">
         <v>79</v>
@@ -13740,7 +13731,7 @@
         <v>79</v>
       </c>
       <c r="AO88" t="s" s="2">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="AP88" t="s" s="2">
         <v>79</v>
@@ -13748,14 +13739,14 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="E89" s="2"/>
       <c r="F89" t="s" s="2">
@@ -13777,13 +13768,13 @@
         <v>137</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="N89" t="s" s="2">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="O89" s="2"/>
       <c r="P89" t="s" s="2">
@@ -13824,7 +13815,7 @@
         <v>140</v>
       </c>
       <c r="AC89" t="s" s="2">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="AD89" t="s" s="2">
         <v>79</v>
@@ -13833,7 +13824,7 @@
         <v>141</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>77</v>
@@ -13860,7 +13851,7 @@
         <v>79</v>
       </c>
       <c r="AO89" t="s" s="2">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="AP89" t="s" s="2">
         <v>79</v>
@@ -13868,14 +13859,14 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="E90" s="2"/>
       <c r="F90" t="s" s="2">
@@ -13897,16 +13888,16 @@
         <v>137</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="O90" t="s" s="2">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="P90" t="s" s="2">
         <v>79</v>
@@ -13955,7 +13946,7 @@
         <v>79</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>77</v>
@@ -13990,10 +13981,10 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -14016,17 +14007,17 @@
         <v>91</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="N91" s="2"/>
       <c r="O91" t="s" s="2">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="P91" t="s" s="2">
         <v>79</v>
@@ -14075,7 +14066,7 @@
         <v>79</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>77</v>
@@ -14102,18 +14093,18 @@
         <v>79</v>
       </c>
       <c r="AO91" t="s" s="2">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="AP91" t="s" s="2">
-        <v>545</v>
+        <v>542</v>
       </c>
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -14136,17 +14127,17 @@
         <v>91</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="N92" s="2"/>
       <c r="O92" t="s" s="2">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="P92" t="s" s="2">
         <v>79</v>
@@ -14195,7 +14186,7 @@
         <v>79</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>77</v>
@@ -14210,7 +14201,7 @@
         <v>102</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="AL92" t="s" s="2">
         <v>79</v>
@@ -14222,18 +14213,18 @@
         <v>79</v>
       </c>
       <c r="AO92" t="s" s="2">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="AP92" t="s" s="2">
-        <v>552</v>
+        <v>549</v>
       </c>
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -14256,19 +14247,19 @@
         <v>91</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="L93" t="s" s="2">
+        <v>551</v>
+      </c>
+      <c r="M93" t="s" s="2">
+        <v>552</v>
+      </c>
+      <c r="N93" t="s" s="2">
+        <v>553</v>
+      </c>
+      <c r="O93" t="s" s="2">
         <v>554</v>
-      </c>
-      <c r="M93" t="s" s="2">
-        <v>555</v>
-      </c>
-      <c r="N93" t="s" s="2">
-        <v>556</v>
-      </c>
-      <c r="O93" t="s" s="2">
-        <v>557</v>
       </c>
       <c r="P93" t="s" s="2">
         <v>79</v>
@@ -14293,13 +14284,13 @@
         <v>79</v>
       </c>
       <c r="X93" t="s" s="2">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="Y93" t="s" s="2">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="Z93" t="s" s="2">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="AA93" t="s" s="2">
         <v>79</v>
@@ -14317,7 +14308,7 @@
         <v>79</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>77</v>
@@ -14332,7 +14323,7 @@
         <v>102</v>
       </c>
       <c r="AK93" t="s" s="2">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="AL93" t="s" s="2">
         <v>79</v>
@@ -14344,18 +14335,18 @@
         <v>79</v>
       </c>
       <c r="AO93" t="s" s="2">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="AP93" t="s" s="2">
-        <v>562</v>
+        <v>559</v>
       </c>
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -14378,13 +14369,13 @@
         <v>91</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="N94" s="2"/>
       <c r="O94" s="2"/>
@@ -14435,7 +14426,7 @@
         <v>79</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>77</v>
@@ -14462,18 +14453,18 @@
         <v>79</v>
       </c>
       <c r="AO94" t="s" s="2">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="AP94" t="s" s="2">
-        <v>562</v>
+        <v>559</v>
       </c>
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -14496,19 +14487,19 @@
         <v>91</v>
       </c>
       <c r="K95" t="s" s="2">
+        <v>565</v>
+      </c>
+      <c r="L95" t="s" s="2">
+        <v>566</v>
+      </c>
+      <c r="M95" t="s" s="2">
+        <v>567</v>
+      </c>
+      <c r="N95" t="s" s="2">
         <v>568</v>
       </c>
-      <c r="L95" t="s" s="2">
+      <c r="O95" t="s" s="2">
         <v>569</v>
-      </c>
-      <c r="M95" t="s" s="2">
-        <v>570</v>
-      </c>
-      <c r="N95" t="s" s="2">
-        <v>571</v>
-      </c>
-      <c r="O95" t="s" s="2">
-        <v>572</v>
       </c>
       <c r="P95" t="s" s="2">
         <v>79</v>
@@ -14557,7 +14548,7 @@
         <v>79</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>77</v>
@@ -14584,7 +14575,7 @@
         <v>79</v>
       </c>
       <c r="AO95" t="s" s="2">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="AP95" t="s" s="2">
         <v>79</v>
@@ -14592,10 +14583,10 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -14621,10 +14612,10 @@
         <v>92</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="N96" s="2"/>
       <c r="O96" s="2"/>
@@ -14675,7 +14666,7 @@
         <v>79</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>77</v>
@@ -14684,7 +14675,7 @@
         <v>90</v>
       </c>
       <c r="AI96" t="s" s="2">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="AJ96" t="s" s="2">
         <v>79</v>
@@ -14702,7 +14693,7 @@
         <v>79</v>
       </c>
       <c r="AO96" t="s" s="2">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="AP96" t="s" s="2">
         <v>79</v>
@@ -14710,14 +14701,14 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="E97" s="2"/>
       <c r="F97" t="s" s="2">
@@ -14739,13 +14730,13 @@
         <v>137</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="N97" t="s" s="2">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="O97" s="2"/>
       <c r="P97" t="s" s="2">
@@ -14786,7 +14777,7 @@
         <v>140</v>
       </c>
       <c r="AC97" t="s" s="2">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="AD97" t="s" s="2">
         <v>79</v>
@@ -14795,7 +14786,7 @@
         <v>141</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>77</v>
@@ -14822,7 +14813,7 @@
         <v>79</v>
       </c>
       <c r="AO97" t="s" s="2">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="AP97" t="s" s="2">
         <v>79</v>
@@ -14830,14 +14821,14 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="E98" s="2"/>
       <c r="F98" t="s" s="2">
@@ -14859,16 +14850,16 @@
         <v>137</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="N98" t="s" s="2">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="O98" t="s" s="2">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="P98" t="s" s="2">
         <v>79</v>
@@ -14917,7 +14908,7 @@
         <v>79</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>77</v>
@@ -14952,10 +14943,10 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -14978,17 +14969,17 @@
         <v>91</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="N99" s="2"/>
       <c r="O99" t="s" s="2">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="P99" t="s" s="2">
         <v>79</v>
@@ -15037,7 +15028,7 @@
         <v>79</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>77</v>
@@ -15064,7 +15055,7 @@
         <v>79</v>
       </c>
       <c r="AO99" t="s" s="2">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="AP99" t="s" s="2">
         <v>79</v>
@@ -15072,10 +15063,10 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -15098,17 +15089,17 @@
         <v>91</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="N100" s="2"/>
       <c r="O100" t="s" s="2">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="P100" t="s" s="2">
         <v>79</v>
@@ -15157,7 +15148,7 @@
         <v>79</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>77</v>
@@ -15169,7 +15160,7 @@
         <v>79</v>
       </c>
       <c r="AJ100" t="s" s="2">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="AK100" t="s" s="2">
         <v>79</v>
@@ -15184,7 +15175,7 @@
         <v>79</v>
       </c>
       <c r="AO100" t="s" s="2">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="AP100" t="s" s="2">
         <v>79</v>
@@ -15192,10 +15183,10 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -15218,13 +15209,13 @@
         <v>79</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="N101" s="2"/>
       <c r="O101" s="2"/>
@@ -15275,7 +15266,7 @@
         <v>79</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>77</v>
@@ -15284,7 +15275,7 @@
         <v>90</v>
       </c>
       <c r="AI101" t="s" s="2">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="AJ101" t="s" s="2">
         <v>79</v>
@@ -15302,7 +15293,7 @@
         <v>79</v>
       </c>
       <c r="AO101" t="s" s="2">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="AP101" t="s" s="2">
         <v>79</v>
@@ -15310,14 +15301,14 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="E102" s="2"/>
       <c r="F102" t="s" s="2">
@@ -15339,13 +15330,13 @@
         <v>137</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="N102" t="s" s="2">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="O102" s="2"/>
       <c r="P102" t="s" s="2">
@@ -15386,7 +15377,7 @@
         <v>140</v>
       </c>
       <c r="AC102" t="s" s="2">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="AD102" t="s" s="2">
         <v>79</v>
@@ -15395,7 +15386,7 @@
         <v>141</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>77</v>
@@ -15422,7 +15413,7 @@
         <v>79</v>
       </c>
       <c r="AO102" t="s" s="2">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="AP102" t="s" s="2">
         <v>79</v>
@@ -15430,10 +15421,10 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -15456,13 +15447,13 @@
         <v>91</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="N103" s="2"/>
       <c r="O103" s="2"/>
@@ -15501,7 +15492,7 @@
         <v>79</v>
       </c>
       <c r="AB103" t="s" s="2">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="AC103" s="2"/>
       <c r="AD103" t="s" s="2">
@@ -15511,7 +15502,7 @@
         <v>141</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>77</v>
@@ -15538,7 +15529,7 @@
         <v>79</v>
       </c>
       <c r="AO103" t="s" s="2">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="AP103" t="s" s="2">
         <v>79</v>
@@ -15546,13 +15537,13 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="C104" t="s" s="2">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="D104" t="s" s="2">
         <v>79</v>
@@ -15574,13 +15565,13 @@
         <v>91</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="N104" s="2"/>
       <c r="O104" s="2"/>
@@ -15631,7 +15622,7 @@
         <v>79</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>77</v>
@@ -15658,7 +15649,7 @@
         <v>79</v>
       </c>
       <c r="AO104" t="s" s="2">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="AP104" t="s" s="2">
         <v>79</v>
@@ -15666,10 +15657,10 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -15695,10 +15686,10 @@
         <v>92</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="N105" s="2"/>
       <c r="O105" s="2"/>
@@ -15749,7 +15740,7 @@
         <v>79</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>77</v>
@@ -15758,7 +15749,7 @@
         <v>90</v>
       </c>
       <c r="AI105" t="s" s="2">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="AJ105" t="s" s="2">
         <v>79</v>
@@ -15776,7 +15767,7 @@
         <v>79</v>
       </c>
       <c r="AO105" t="s" s="2">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="AP105" t="s" s="2">
         <v>79</v>
@@ -15784,14 +15775,14 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="E106" s="2"/>
       <c r="F106" t="s" s="2">
@@ -15813,13 +15804,13 @@
         <v>137</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="N106" t="s" s="2">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="O106" s="2"/>
       <c r="P106" t="s" s="2">
@@ -15860,7 +15851,7 @@
         <v>140</v>
       </c>
       <c r="AC106" t="s" s="2">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="AD106" t="s" s="2">
         <v>79</v>
@@ -15869,7 +15860,7 @@
         <v>141</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="AG106" t="s" s="2">
         <v>77</v>
@@ -15896,7 +15887,7 @@
         <v>79</v>
       </c>
       <c r="AO106" t="s" s="2">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="AP106" t="s" s="2">
         <v>79</v>
@@ -15904,10 +15895,10 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
@@ -15930,16 +15921,16 @@
         <v>91</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="N107" t="s" s="2">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="O107" s="2"/>
       <c r="P107" t="s" s="2">
@@ -15989,7 +15980,7 @@
         <v>79</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="AG107" t="s" s="2">
         <v>77</v>
@@ -15998,13 +15989,13 @@
         <v>90</v>
       </c>
       <c r="AI107" t="s" s="2">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="AJ107" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AK107" t="s" s="2">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="AL107" t="s" s="2">
         <v>79</v>
@@ -16016,18 +16007,18 @@
         <v>79</v>
       </c>
       <c r="AO107" t="s" s="2">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="AP107" t="s" s="2">
-        <v>515</v>
+        <v>512</v>
       </c>
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
@@ -16050,23 +16041,23 @@
         <v>91</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="N108" t="s" s="2">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="O108" s="2"/>
       <c r="P108" t="s" s="2">
         <v>79</v>
       </c>
       <c r="Q108" t="s" s="2">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="R108" t="s" s="2">
         <v>79</v>
@@ -16111,7 +16102,7 @@
         <v>79</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="AG108" t="s" s="2">
         <v>77</v>
@@ -16120,13 +16111,13 @@
         <v>90</v>
       </c>
       <c r="AI108" t="s" s="2">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="AJ108" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AK108" t="s" s="2">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="AL108" t="s" s="2">
         <v>79</v>
@@ -16138,18 +16129,18 @@
         <v>79</v>
       </c>
       <c r="AO108" t="s" s="2">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="AP108" t="s" s="2">
-        <v>524</v>
+        <v>521</v>
       </c>
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
@@ -16172,19 +16163,19 @@
         <v>91</v>
       </c>
       <c r="K109" t="s" s="2">
+        <v>611</v>
+      </c>
+      <c r="L109" t="s" s="2">
+        <v>612</v>
+      </c>
+      <c r="M109" t="s" s="2">
+        <v>613</v>
+      </c>
+      <c r="N109" t="s" s="2">
         <v>614</v>
       </c>
-      <c r="L109" t="s" s="2">
+      <c r="O109" t="s" s="2">
         <v>615</v>
-      </c>
-      <c r="M109" t="s" s="2">
-        <v>616</v>
-      </c>
-      <c r="N109" t="s" s="2">
-        <v>617</v>
-      </c>
-      <c r="O109" t="s" s="2">
-        <v>618</v>
       </c>
       <c r="P109" t="s" s="2">
         <v>79</v>
@@ -16233,7 +16224,7 @@
         <v>79</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="AG109" t="s" s="2">
         <v>77</v>
@@ -16242,7 +16233,7 @@
         <v>90</v>
       </c>
       <c r="AI109" t="s" s="2">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="AJ109" t="s" s="2">
         <v>102</v>
@@ -16260,7 +16251,7 @@
         <v>79</v>
       </c>
       <c r="AO109" t="s" s="2">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="AP109" t="s" s="2">
         <v>79</v>
@@ -16268,10 +16259,10 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
@@ -16294,13 +16285,13 @@
         <v>91</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="N110" s="2"/>
       <c r="O110" s="2"/>
@@ -16351,7 +16342,7 @@
         <v>79</v>
       </c>
       <c r="AF110" t="s" s="2">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="AG110" t="s" s="2">
         <v>77</v>
@@ -16360,7 +16351,7 @@
         <v>90</v>
       </c>
       <c r="AI110" t="s" s="2">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="AJ110" t="s" s="2">
         <v>102</v>
@@ -16378,7 +16369,7 @@
         <v>79</v>
       </c>
       <c r="AO110" t="s" s="2">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="AP110" t="s" s="2">
         <v>79</v>
@@ -16386,10 +16377,10 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
@@ -16412,19 +16403,19 @@
         <v>91</v>
       </c>
       <c r="K111" t="s" s="2">
+        <v>624</v>
+      </c>
+      <c r="L111" t="s" s="2">
+        <v>625</v>
+      </c>
+      <c r="M111" t="s" s="2">
+        <v>626</v>
+      </c>
+      <c r="N111" t="s" s="2">
         <v>627</v>
       </c>
-      <c r="L111" t="s" s="2">
+      <c r="O111" t="s" s="2">
         <v>628</v>
-      </c>
-      <c r="M111" t="s" s="2">
-        <v>629</v>
-      </c>
-      <c r="N111" t="s" s="2">
-        <v>630</v>
-      </c>
-      <c r="O111" t="s" s="2">
-        <v>631</v>
       </c>
       <c r="P111" t="s" s="2">
         <v>79</v>
@@ -16473,7 +16464,7 @@
         <v>79</v>
       </c>
       <c r="AF111" t="s" s="2">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="AG111" t="s" s="2">
         <v>77</v>
@@ -16482,7 +16473,7 @@
         <v>90</v>
       </c>
       <c r="AI111" t="s" s="2">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="AJ111" t="s" s="2">
         <v>102</v>
@@ -16500,7 +16491,7 @@
         <v>79</v>
       </c>
       <c r="AO111" t="s" s="2">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="AP111" t="s" s="2">
         <v>79</v>
@@ -16508,10 +16499,10 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
@@ -16534,19 +16525,19 @@
         <v>91</v>
       </c>
       <c r="K112" t="s" s="2">
+        <v>624</v>
+      </c>
+      <c r="L112" t="s" s="2">
+        <v>633</v>
+      </c>
+      <c r="M112" t="s" s="2">
+        <v>634</v>
+      </c>
+      <c r="N112" t="s" s="2">
         <v>627</v>
       </c>
-      <c r="L112" t="s" s="2">
-        <v>636</v>
-      </c>
-      <c r="M112" t="s" s="2">
-        <v>637</v>
-      </c>
-      <c r="N112" t="s" s="2">
-        <v>630</v>
-      </c>
       <c r="O112" t="s" s="2">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="P112" t="s" s="2">
         <v>79</v>
@@ -16595,7 +16586,7 @@
         <v>79</v>
       </c>
       <c r="AF112" t="s" s="2">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="AG112" t="s" s="2">
         <v>77</v>
@@ -16604,7 +16595,7 @@
         <v>90</v>
       </c>
       <c r="AI112" t="s" s="2">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="AJ112" t="s" s="2">
         <v>102</v>
@@ -16622,7 +16613,7 @@
         <v>79</v>
       </c>
       <c r="AO112" t="s" s="2">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="AP112" t="s" s="2">
         <v>79</v>
@@ -16630,10 +16621,10 @@
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" t="s" s="2">
@@ -16659,10 +16650,10 @@
         <v>110</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="N113" s="2"/>
       <c r="O113" s="2"/>
@@ -16692,37 +16683,37 @@
         <v>114</v>
       </c>
       <c r="Y113" t="s" s="2">
+        <v>640</v>
+      </c>
+      <c r="Z113" t="s" s="2">
+        <v>641</v>
+      </c>
+      <c r="AA113" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB113" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC113" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD113" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE113" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF113" t="s" s="2">
+        <v>642</v>
+      </c>
+      <c r="AG113" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH113" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI113" t="s" s="2">
         <v>643</v>
-      </c>
-      <c r="Z113" t="s" s="2">
-        <v>644</v>
-      </c>
-      <c r="AA113" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB113" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC113" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD113" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE113" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF113" t="s" s="2">
-        <v>645</v>
-      </c>
-      <c r="AG113" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH113" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AI113" t="s" s="2">
-        <v>646</v>
       </c>
       <c r="AJ113" t="s" s="2">
         <v>102</v>
@@ -16740,7 +16731,7 @@
         <v>79</v>
       </c>
       <c r="AO113" t="s" s="2">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="AP113" t="s" s="2">
         <v>79</v>
@@ -16748,10 +16739,10 @@
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" t="s" s="2">
@@ -16774,13 +16765,13 @@
         <v>91</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="N114" s="2"/>
       <c r="O114" s="2"/>
@@ -16788,7 +16779,7 @@
         <v>79</v>
       </c>
       <c r="Q114" t="s" s="2">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="R114" t="s" s="2">
         <v>79</v>
@@ -16833,7 +16824,7 @@
         <v>79</v>
       </c>
       <c r="AF114" t="s" s="2">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="AG114" t="s" s="2">
         <v>77</v>
@@ -16860,7 +16851,7 @@
         <v>79</v>
       </c>
       <c r="AO114" t="s" s="2">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="AP114" t="s" s="2">
         <v>79</v>
@@ -16868,10 +16859,10 @@
     </row>
     <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" t="s" s="2">
@@ -16894,13 +16885,13 @@
         <v>91</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="M115" t="s" s="2">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="N115" s="2"/>
       <c r="O115" s="2"/>
@@ -16951,7 +16942,7 @@
         <v>79</v>
       </c>
       <c r="AF115" t="s" s="2">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="AG115" t="s" s="2">
         <v>77</v>
@@ -16978,7 +16969,7 @@
         <v>79</v>
       </c>
       <c r="AO115" t="s" s="2">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="AP115" t="s" s="2">
         <v>79</v>
@@ -16986,10 +16977,10 @@
     </row>
     <row r="116" hidden="true">
       <c r="A116" t="s" s="2">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" t="s" s="2">
@@ -17012,13 +17003,13 @@
         <v>91</v>
       </c>
       <c r="K116" t="s" s="2">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="M116" t="s" s="2">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="N116" s="2"/>
       <c r="O116" s="2"/>
@@ -17069,7 +17060,7 @@
         <v>79</v>
       </c>
       <c r="AF116" t="s" s="2">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="AG116" t="s" s="2">
         <v>77</v>
@@ -17078,7 +17069,7 @@
         <v>90</v>
       </c>
       <c r="AI116" t="s" s="2">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="AJ116" t="s" s="2">
         <v>102</v>
@@ -17096,7 +17087,7 @@
         <v>79</v>
       </c>
       <c r="AO116" t="s" s="2">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="AP116" t="s" s="2">
         <v>79</v>
@@ -17104,10 +17095,10 @@
     </row>
     <row r="117" hidden="true">
       <c r="A117" t="s" s="2">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" t="s" s="2">
@@ -17130,13 +17121,13 @@
         <v>91</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="N117" s="2"/>
       <c r="O117" s="2"/>
@@ -17187,7 +17178,7 @@
         <v>79</v>
       </c>
       <c r="AF117" t="s" s="2">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="AG117" t="s" s="2">
         <v>77</v>
@@ -17196,7 +17187,7 @@
         <v>90</v>
       </c>
       <c r="AI117" t="s" s="2">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="AJ117" t="s" s="2">
         <v>102</v>
@@ -17214,7 +17205,7 @@
         <v>79</v>
       </c>
       <c r="AO117" t="s" s="2">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="AP117" t="s" s="2">
         <v>79</v>
@@ -17222,10 +17213,10 @@
     </row>
     <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="C118" s="2"/>
       <c r="D118" t="s" s="2">
@@ -17251,10 +17242,10 @@
         <v>110</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="M118" t="s" s="2">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="N118" s="2"/>
       <c r="O118" s="2"/>
@@ -17284,10 +17275,10 @@
         <v>114</v>
       </c>
       <c r="Y118" t="s" s="2">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="Z118" t="s" s="2">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="AA118" t="s" s="2">
         <v>79</v>
@@ -17305,7 +17296,7 @@
         <v>79</v>
       </c>
       <c r="AF118" t="s" s="2">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="AG118" t="s" s="2">
         <v>77</v>
@@ -17314,7 +17305,7 @@
         <v>90</v>
       </c>
       <c r="AI118" t="s" s="2">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="AJ118" t="s" s="2">
         <v>102</v>
@@ -17332,7 +17323,7 @@
         <v>79</v>
       </c>
       <c r="AO118" t="s" s="2">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="AP118" t="s" s="2">
         <v>79</v>
@@ -17340,10 +17331,10 @@
     </row>
     <row r="119" hidden="true">
       <c r="A119" t="s" s="2">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" t="s" s="2">
@@ -17369,13 +17360,13 @@
         <v>110</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="M119" t="s" s="2">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="N119" t="s" s="2">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="O119" s="2"/>
       <c r="P119" t="s" s="2">
@@ -17405,7 +17396,7 @@
       </c>
       <c r="Y119" s="2"/>
       <c r="Z119" t="s" s="2">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="AA119" t="s" s="2">
         <v>79</v>
@@ -17423,7 +17414,7 @@
         <v>79</v>
       </c>
       <c r="AF119" t="s" s="2">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="AG119" t="s" s="2">
         <v>77</v>
@@ -17450,7 +17441,7 @@
         <v>79</v>
       </c>
       <c r="AO119" t="s" s="2">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="AP119" t="s" s="2">
         <v>79</v>
@@ -17458,10 +17449,10 @@
     </row>
     <row r="120" hidden="true">
       <c r="A120" t="s" s="2">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" t="s" s="2">
@@ -17484,16 +17475,16 @@
         <v>91</v>
       </c>
       <c r="K120" t="s" s="2">
+        <v>675</v>
+      </c>
+      <c r="L120" t="s" s="2">
+        <v>676</v>
+      </c>
+      <c r="M120" t="s" s="2">
+        <v>677</v>
+      </c>
+      <c r="N120" t="s" s="2">
         <v>678</v>
-      </c>
-      <c r="L120" t="s" s="2">
-        <v>679</v>
-      </c>
-      <c r="M120" t="s" s="2">
-        <v>680</v>
-      </c>
-      <c r="N120" t="s" s="2">
-        <v>681</v>
       </c>
       <c r="O120" s="2"/>
       <c r="P120" t="s" s="2">
@@ -17543,7 +17534,7 @@
         <v>79</v>
       </c>
       <c r="AF120" t="s" s="2">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="AG120" t="s" s="2">
         <v>77</v>
@@ -17552,7 +17543,7 @@
         <v>78</v>
       </c>
       <c r="AI120" t="s" s="2">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="AJ120" t="s" s="2">
         <v>102</v>
@@ -17570,7 +17561,7 @@
         <v>79</v>
       </c>
       <c r="AO120" t="s" s="2">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="AP120" t="s" s="2">
         <v>79</v>
@@ -17578,10 +17569,10 @@
     </row>
     <row r="121" hidden="true">
       <c r="A121" t="s" s="2">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="C121" s="2"/>
       <c r="D121" t="s" s="2">
@@ -17607,16 +17598,16 @@
         <v>110</v>
       </c>
       <c r="L121" t="s" s="2">
+        <v>682</v>
+      </c>
+      <c r="M121" t="s" s="2">
+        <v>683</v>
+      </c>
+      <c r="N121" t="s" s="2">
+        <v>684</v>
+      </c>
+      <c r="O121" t="s" s="2">
         <v>685</v>
-      </c>
-      <c r="M121" t="s" s="2">
-        <v>686</v>
-      </c>
-      <c r="N121" t="s" s="2">
-        <v>687</v>
-      </c>
-      <c r="O121" t="s" s="2">
-        <v>688</v>
       </c>
       <c r="P121" t="s" s="2">
         <v>79</v>
@@ -17644,10 +17635,10 @@
         <v>114</v>
       </c>
       <c r="Y121" t="s" s="2">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="Z121" t="s" s="2">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="AA121" t="s" s="2">
         <v>79</v>
@@ -17665,7 +17656,7 @@
         <v>79</v>
       </c>
       <c r="AF121" t="s" s="2">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="AG121" t="s" s="2">
         <v>77</v>
@@ -17674,7 +17665,7 @@
         <v>78</v>
       </c>
       <c r="AI121" t="s" s="2">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="AJ121" t="s" s="2">
         <v>102</v>
@@ -17692,7 +17683,7 @@
         <v>79</v>
       </c>
       <c r="AO121" t="s" s="2">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="AP121" t="s" s="2">
         <v>79</v>
@@ -17700,10 +17691,10 @@
     </row>
     <row r="122" hidden="true">
       <c r="A122" t="s" s="2">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" t="s" s="2">
@@ -17726,13 +17717,13 @@
         <v>91</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="M122" t="s" s="2">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="N122" s="2"/>
       <c r="O122" s="2"/>
@@ -17783,7 +17774,7 @@
         <v>79</v>
       </c>
       <c r="AF122" t="s" s="2">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="AG122" t="s" s="2">
         <v>77</v>
@@ -17792,13 +17783,13 @@
         <v>90</v>
       </c>
       <c r="AI122" t="s" s="2">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="AJ122" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AK122" t="s" s="2">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="AL122" t="s" s="2">
         <v>79</v>
@@ -17810,7 +17801,7 @@
         <v>79</v>
       </c>
       <c r="AO122" t="s" s="2">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="AP122" t="s" s="2">
         <v>79</v>
@@ -17818,10 +17809,10 @@
     </row>
     <row r="123" hidden="true">
       <c r="A123" t="s" s="2">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="C123" s="2"/>
       <c r="D123" t="s" s="2">
@@ -17844,16 +17835,16 @@
         <v>91</v>
       </c>
       <c r="K123" t="s" s="2">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="M123" t="s" s="2">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="N123" t="s" s="2">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="O123" s="2"/>
       <c r="P123" t="s" s="2">
@@ -17879,31 +17870,31 @@
         <v>79</v>
       </c>
       <c r="X123" t="s" s="2">
+        <v>703</v>
+      </c>
+      <c r="Y123" t="s" s="2">
+        <v>704</v>
+      </c>
+      <c r="Z123" t="s" s="2">
+        <v>705</v>
+      </c>
+      <c r="AA123" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB123" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC123" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD123" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE123" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF123" t="s" s="2">
         <v>706</v>
-      </c>
-      <c r="Y123" t="s" s="2">
-        <v>707</v>
-      </c>
-      <c r="Z123" t="s" s="2">
-        <v>708</v>
-      </c>
-      <c r="AA123" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB123" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC123" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD123" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE123" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF123" t="s" s="2">
-        <v>709</v>
       </c>
       <c r="AG123" t="s" s="2">
         <v>77</v>
@@ -17930,7 +17921,7 @@
         <v>79</v>
       </c>
       <c r="AO123" t="s" s="2">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="AP123" t="s" s="2">
         <v>79</v>
@@ -17938,10 +17929,10 @@
     </row>
     <row r="124" hidden="true">
       <c r="A124" t="s" s="2">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" t="s" s="2">
@@ -17964,16 +17955,16 @@
         <v>91</v>
       </c>
       <c r="K124" t="s" s="2">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="M124" t="s" s="2">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="N124" t="s" s="2">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="O124" s="2"/>
       <c r="P124" t="s" s="2">
@@ -18023,7 +18014,7 @@
         <v>79</v>
       </c>
       <c r="AF124" t="s" s="2">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="AG124" t="s" s="2">
         <v>77</v>
@@ -18032,7 +18023,7 @@
         <v>90</v>
       </c>
       <c r="AI124" t="s" s="2">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="AJ124" t="s" s="2">
         <v>102</v>
@@ -18050,18 +18041,18 @@
         <v>79</v>
       </c>
       <c r="AO124" t="s" s="2">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="AP124" t="s" s="2">
-        <v>718</v>
+        <v>715</v>
       </c>
     </row>
     <row r="125" hidden="true">
       <c r="A125" t="s" s="2">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="C125" s="2"/>
       <c r="D125" t="s" s="2">
@@ -18084,16 +18075,16 @@
         <v>91</v>
       </c>
       <c r="K125" t="s" s="2">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="M125" t="s" s="2">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="N125" t="s" s="2">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="O125" s="2"/>
       <c r="P125" t="s" s="2">
@@ -18119,13 +18110,13 @@
         <v>79</v>
       </c>
       <c r="X125" t="s" s="2">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="Y125" t="s" s="2">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="Z125" t="s" s="2">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="AA125" t="s" s="2">
         <v>79</v>
@@ -18143,7 +18134,7 @@
         <v>79</v>
       </c>
       <c r="AF125" t="s" s="2">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="AG125" t="s" s="2">
         <v>77</v>
@@ -18152,7 +18143,7 @@
         <v>78</v>
       </c>
       <c r="AI125" t="s" s="2">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="AJ125" t="s" s="2">
         <v>102</v>
@@ -18170,18 +18161,18 @@
         <v>79</v>
       </c>
       <c r="AO125" t="s" s="2">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="AP125" t="s" s="2">
-        <v>718</v>
+        <v>715</v>
       </c>
     </row>
     <row r="126" hidden="true">
       <c r="A126" t="s" s="2">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="C126" s="2"/>
       <c r="D126" t="s" s="2">
@@ -18204,19 +18195,19 @@
         <v>91</v>
       </c>
       <c r="K126" t="s" s="2">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="L126" t="s" s="2">
+        <v>724</v>
+      </c>
+      <c r="M126" t="s" s="2">
+        <v>725</v>
+      </c>
+      <c r="N126" t="s" s="2">
+        <v>726</v>
+      </c>
+      <c r="O126" t="s" s="2">
         <v>727</v>
-      </c>
-      <c r="M126" t="s" s="2">
-        <v>728</v>
-      </c>
-      <c r="N126" t="s" s="2">
-        <v>729</v>
-      </c>
-      <c r="O126" t="s" s="2">
-        <v>730</v>
       </c>
       <c r="P126" t="s" s="2">
         <v>79</v>
@@ -18241,13 +18232,13 @@
         <v>79</v>
       </c>
       <c r="X126" t="s" s="2">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="Y126" t="s" s="2">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="Z126" t="s" s="2">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="AA126" t="s" s="2">
         <v>79</v>
@@ -18265,7 +18256,7 @@
         <v>79</v>
       </c>
       <c r="AF126" t="s" s="2">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="AG126" t="s" s="2">
         <v>77</v>
@@ -18280,7 +18271,7 @@
         <v>102</v>
       </c>
       <c r="AK126" t="s" s="2">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="AL126" t="s" s="2">
         <v>79</v>
@@ -18292,18 +18283,18 @@
         <v>79</v>
       </c>
       <c r="AO126" t="s" s="2">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="AP126" t="s" s="2">
-        <v>736</v>
+        <v>733</v>
       </c>
     </row>
     <row r="127" hidden="true">
       <c r="A127" t="s" s="2">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="B127" t="s" s="2">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="C127" s="2"/>
       <c r="D127" t="s" s="2">
@@ -18326,17 +18317,17 @@
         <v>91</v>
       </c>
       <c r="K127" t="s" s="2">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="L127" t="s" s="2">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="M127" t="s" s="2">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="N127" s="2"/>
       <c r="O127" t="s" s="2">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="P127" t="s" s="2">
         <v>79</v>
@@ -18361,13 +18352,13 @@
         <v>79</v>
       </c>
       <c r="X127" t="s" s="2">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="Y127" t="s" s="2">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="Z127" t="s" s="2">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="AA127" t="s" s="2">
         <v>79</v>
@@ -18385,7 +18376,7 @@
         <v>79</v>
       </c>
       <c r="AF127" t="s" s="2">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="AG127" t="s" s="2">
         <v>77</v>
@@ -18400,7 +18391,7 @@
         <v>102</v>
       </c>
       <c r="AK127" t="s" s="2">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="AL127" t="s" s="2">
         <v>79</v>
@@ -18412,18 +18403,18 @@
         <v>79</v>
       </c>
       <c r="AO127" t="s" s="2">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="AP127" t="s" s="2">
-        <v>746</v>
+        <v>743</v>
       </c>
     </row>
     <row r="128" hidden="true">
       <c r="A128" t="s" s="2">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="B128" t="s" s="2">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="C128" s="2"/>
       <c r="D128" t="s" s="2">
@@ -18446,19 +18437,19 @@
         <v>91</v>
       </c>
       <c r="K128" t="s" s="2">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="L128" t="s" s="2">
+        <v>745</v>
+      </c>
+      <c r="M128" t="s" s="2">
+        <v>746</v>
+      </c>
+      <c r="N128" t="s" s="2">
+        <v>747</v>
+      </c>
+      <c r="O128" t="s" s="2">
         <v>748</v>
-      </c>
-      <c r="M128" t="s" s="2">
-        <v>749</v>
-      </c>
-      <c r="N128" t="s" s="2">
-        <v>750</v>
-      </c>
-      <c r="O128" t="s" s="2">
-        <v>751</v>
       </c>
       <c r="P128" t="s" s="2">
         <v>79</v>
@@ -18483,13 +18474,13 @@
         <v>79</v>
       </c>
       <c r="X128" t="s" s="2">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="Y128" t="s" s="2">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="Z128" t="s" s="2">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="AA128" t="s" s="2">
         <v>79</v>
@@ -18507,7 +18498,7 @@
         <v>79</v>
       </c>
       <c r="AF128" t="s" s="2">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="AG128" t="s" s="2">
         <v>77</v>
@@ -18522,7 +18513,7 @@
         <v>102</v>
       </c>
       <c r="AK128" t="s" s="2">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="AL128" t="s" s="2">
         <v>79</v>
@@ -18534,18 +18525,18 @@
         <v>79</v>
       </c>
       <c r="AO128" t="s" s="2">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="AP128" t="s" s="2">
-        <v>757</v>
+        <v>754</v>
       </c>
     </row>
     <row r="129" hidden="true">
       <c r="A129" t="s" s="2">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="B129" t="s" s="2">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="C129" s="2"/>
       <c r="D129" t="s" s="2">
@@ -18568,13 +18559,13 @@
         <v>91</v>
       </c>
       <c r="K129" t="s" s="2">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="L129" t="s" s="2">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="M129" t="s" s="2">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="N129" s="2"/>
       <c r="O129" s="2"/>
@@ -18625,7 +18616,7 @@
         <v>79</v>
       </c>
       <c r="AF129" t="s" s="2">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="AG129" t="s" s="2">
         <v>77</v>
@@ -18652,18 +18643,18 @@
         <v>79</v>
       </c>
       <c r="AO129" t="s" s="2">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="AP129" t="s" s="2">
-        <v>763</v>
+        <v>760</v>
       </c>
     </row>
     <row r="130" hidden="true">
       <c r="A130" t="s" s="2">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="B130" t="s" s="2">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="C130" s="2"/>
       <c r="D130" t="s" s="2">
@@ -18686,13 +18677,13 @@
         <v>79</v>
       </c>
       <c r="K130" t="s" s="2">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="L130" t="s" s="2">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="M130" t="s" s="2">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="N130" s="2"/>
       <c r="O130" s="2"/>
@@ -18743,7 +18734,7 @@
         <v>79</v>
       </c>
       <c r="AF130" t="s" s="2">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="AG130" t="s" s="2">
         <v>77</v>
@@ -18752,7 +18743,7 @@
         <v>90</v>
       </c>
       <c r="AI130" t="s" s="2">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="AJ130" t="s" s="2">
         <v>79</v>
@@ -18770,7 +18761,7 @@
         <v>79</v>
       </c>
       <c r="AO130" t="s" s="2">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="AP130" t="s" s="2">
         <v>79</v>
@@ -18778,14 +18769,14 @@
     </row>
     <row r="131" hidden="true">
       <c r="A131" t="s" s="2">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="B131" t="s" s="2">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="C131" s="2"/>
       <c r="D131" t="s" s="2">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="E131" s="2"/>
       <c r="F131" t="s" s="2">
@@ -18807,13 +18798,13 @@
         <v>137</v>
       </c>
       <c r="L131" t="s" s="2">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="M131" t="s" s="2">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="N131" t="s" s="2">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="O131" s="2"/>
       <c r="P131" t="s" s="2">
@@ -18854,7 +18845,7 @@
         <v>140</v>
       </c>
       <c r="AC131" t="s" s="2">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="AD131" t="s" s="2">
         <v>79</v>
@@ -18863,7 +18854,7 @@
         <v>141</v>
       </c>
       <c r="AF131" t="s" s="2">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="AG131" t="s" s="2">
         <v>77</v>
@@ -18890,7 +18881,7 @@
         <v>79</v>
       </c>
       <c r="AO131" t="s" s="2">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="AP131" t="s" s="2">
         <v>79</v>
@@ -18898,10 +18889,10 @@
     </row>
     <row r="132" hidden="true">
       <c r="A132" t="s" s="2">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="B132" t="s" s="2">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="C132" s="2"/>
       <c r="D132" t="s" s="2">
@@ -18924,17 +18915,17 @@
         <v>91</v>
       </c>
       <c r="K132" t="s" s="2">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="L132" t="s" s="2">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="M132" t="s" s="2">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="N132" s="2"/>
       <c r="O132" t="s" s="2">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="P132" t="s" s="2">
         <v>79</v>
@@ -18959,13 +18950,13 @@
         <v>79</v>
       </c>
       <c r="X132" t="s" s="2">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="Y132" t="s" s="2">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="Z132" t="s" s="2">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="AA132" t="s" s="2">
         <v>79</v>
@@ -18983,7 +18974,7 @@
         <v>79</v>
       </c>
       <c r="AF132" t="s" s="2">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="AG132" t="s" s="2">
         <v>77</v>
@@ -19013,15 +19004,15 @@
         <v>79</v>
       </c>
       <c r="AP132" t="s" s="2">
-        <v>773</v>
+        <v>770</v>
       </c>
     </row>
     <row r="133" hidden="true">
       <c r="A133" t="s" s="2">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="B133" t="s" s="2">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="C133" s="2"/>
       <c r="D133" t="s" s="2">
@@ -19044,19 +19035,19 @@
         <v>91</v>
       </c>
       <c r="K133" t="s" s="2">
+        <v>772</v>
+      </c>
+      <c r="L133" t="s" s="2">
+        <v>773</v>
+      </c>
+      <c r="M133" t="s" s="2">
+        <v>774</v>
+      </c>
+      <c r="N133" t="s" s="2">
         <v>775</v>
       </c>
-      <c r="L133" t="s" s="2">
+      <c r="O133" t="s" s="2">
         <v>776</v>
-      </c>
-      <c r="M133" t="s" s="2">
-        <v>777</v>
-      </c>
-      <c r="N133" t="s" s="2">
-        <v>778</v>
-      </c>
-      <c r="O133" t="s" s="2">
-        <v>779</v>
       </c>
       <c r="P133" t="s" s="2">
         <v>79</v>
@@ -19105,7 +19096,7 @@
         <v>79</v>
       </c>
       <c r="AF133" t="s" s="2">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="AG133" t="s" s="2">
         <v>77</v>
@@ -19132,18 +19123,18 @@
         <v>79</v>
       </c>
       <c r="AO133" t="s" s="2">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="AP133" t="s" s="2">
-        <v>782</v>
+        <v>779</v>
       </c>
     </row>
     <row r="134" hidden="true">
       <c r="A134" t="s" s="2">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="B134" t="s" s="2">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="C134" s="2"/>
       <c r="D134" t="s" s="2">
@@ -19166,19 +19157,19 @@
         <v>91</v>
       </c>
       <c r="K134" t="s" s="2">
+        <v>781</v>
+      </c>
+      <c r="L134" t="s" s="2">
+        <v>782</v>
+      </c>
+      <c r="M134" t="s" s="2">
+        <v>783</v>
+      </c>
+      <c r="N134" t="s" s="2">
         <v>784</v>
       </c>
-      <c r="L134" t="s" s="2">
+      <c r="O134" t="s" s="2">
         <v>785</v>
-      </c>
-      <c r="M134" t="s" s="2">
-        <v>786</v>
-      </c>
-      <c r="N134" t="s" s="2">
-        <v>787</v>
-      </c>
-      <c r="O134" t="s" s="2">
-        <v>788</v>
       </c>
       <c r="P134" t="s" s="2">
         <v>79</v>
@@ -19227,7 +19218,7 @@
         <v>79</v>
       </c>
       <c r="AF134" t="s" s="2">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="AG134" t="s" s="2">
         <v>77</v>
@@ -19254,18 +19245,18 @@
         <v>79</v>
       </c>
       <c r="AO134" t="s" s="2">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="AP134" t="s" s="2">
-        <v>791</v>
+        <v>788</v>
       </c>
     </row>
     <row r="135" hidden="true">
       <c r="A135" t="s" s="2">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="B135" t="s" s="2">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="C135" s="2"/>
       <c r="D135" t="s" s="2">
@@ -19288,19 +19279,19 @@
         <v>91</v>
       </c>
       <c r="K135" t="s" s="2">
+        <v>790</v>
+      </c>
+      <c r="L135" t="s" s="2">
+        <v>791</v>
+      </c>
+      <c r="M135" t="s" s="2">
+        <v>792</v>
+      </c>
+      <c r="N135" t="s" s="2">
         <v>793</v>
       </c>
-      <c r="L135" t="s" s="2">
+      <c r="O135" t="s" s="2">
         <v>794</v>
-      </c>
-      <c r="M135" t="s" s="2">
-        <v>795</v>
-      </c>
-      <c r="N135" t="s" s="2">
-        <v>796</v>
-      </c>
-      <c r="O135" t="s" s="2">
-        <v>797</v>
       </c>
       <c r="P135" t="s" s="2">
         <v>79</v>
@@ -19349,7 +19340,7 @@
         <v>79</v>
       </c>
       <c r="AF135" t="s" s="2">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="AG135" t="s" s="2">
         <v>77</v>
@@ -19376,18 +19367,18 @@
         <v>79</v>
       </c>
       <c r="AO135" t="s" s="2">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="AP135" t="s" s="2">
-        <v>800</v>
+        <v>797</v>
       </c>
     </row>
     <row r="136" hidden="true">
       <c r="A136" t="s" s="2">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="B136" t="s" s="2">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="C136" s="2"/>
       <c r="D136" t="s" s="2">
@@ -19410,19 +19401,19 @@
         <v>91</v>
       </c>
       <c r="K136" t="s" s="2">
+        <v>799</v>
+      </c>
+      <c r="L136" t="s" s="2">
+        <v>800</v>
+      </c>
+      <c r="M136" t="s" s="2">
+        <v>801</v>
+      </c>
+      <c r="N136" t="s" s="2">
         <v>802</v>
       </c>
-      <c r="L136" t="s" s="2">
+      <c r="O136" t="s" s="2">
         <v>803</v>
-      </c>
-      <c r="M136" t="s" s="2">
-        <v>804</v>
-      </c>
-      <c r="N136" t="s" s="2">
-        <v>805</v>
-      </c>
-      <c r="O136" t="s" s="2">
-        <v>806</v>
       </c>
       <c r="P136" t="s" s="2">
         <v>79</v>
@@ -19471,7 +19462,7 @@
         <v>79</v>
       </c>
       <c r="AF136" t="s" s="2">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="AG136" t="s" s="2">
         <v>77</v>
@@ -19498,7 +19489,7 @@
         <v>79</v>
       </c>
       <c r="AO136" t="s" s="2">
-        <v>808</v>
+        <v>805</v>
       </c>
       <c r="AP136" t="s" s="2">
         <v>79</v>
@@ -19506,10 +19497,10 @@
     </row>
     <row r="137" hidden="true">
       <c r="A137" t="s" s="2">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="B137" t="s" s="2">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="C137" s="2"/>
       <c r="D137" t="s" s="2">
@@ -19532,17 +19523,17 @@
         <v>91</v>
       </c>
       <c r="K137" t="s" s="2">
-        <v>802</v>
+        <v>799</v>
       </c>
       <c r="L137" t="s" s="2">
-        <v>810</v>
+        <v>807</v>
       </c>
       <c r="M137" t="s" s="2">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="N137" s="2"/>
       <c r="O137" t="s" s="2">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="P137" t="s" s="2">
         <v>79</v>
@@ -19591,7 +19582,7 @@
         <v>79</v>
       </c>
       <c r="AF137" t="s" s="2">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="AG137" t="s" s="2">
         <v>77</v>
@@ -19618,7 +19609,7 @@
         <v>79</v>
       </c>
       <c r="AO137" t="s" s="2">
-        <v>808</v>
+        <v>805</v>
       </c>
       <c r="AP137" t="s" s="2">
         <v>79</v>
@@ -19626,10 +19617,10 @@
     </row>
     <row r="138" hidden="true">
       <c r="A138" t="s" s="2">
-        <v>814</v>
+        <v>811</v>
       </c>
       <c r="B138" t="s" s="2">
-        <v>814</v>
+        <v>811</v>
       </c>
       <c r="C138" s="2"/>
       <c r="D138" t="s" s="2">
@@ -19652,13 +19643,13 @@
         <v>79</v>
       </c>
       <c r="K138" t="s" s="2">
-        <v>815</v>
+        <v>812</v>
       </c>
       <c r="L138" t="s" s="2">
-        <v>816</v>
+        <v>813</v>
       </c>
       <c r="M138" t="s" s="2">
-        <v>817</v>
+        <v>814</v>
       </c>
       <c r="N138" s="2"/>
       <c r="O138" s="2"/>
@@ -19709,7 +19700,7 @@
         <v>79</v>
       </c>
       <c r="AF138" t="s" s="2">
-        <v>814</v>
+        <v>811</v>
       </c>
       <c r="AG138" t="s" s="2">
         <v>77</v>
@@ -19730,13 +19721,13 @@
         <v>79</v>
       </c>
       <c r="AM138" t="s" s="2">
-        <v>818</v>
+        <v>815</v>
       </c>
       <c r="AN138" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO138" t="s" s="2">
-        <v>819</v>
+        <v>816</v>
       </c>
       <c r="AP138" t="s" s="2">
         <v>79</v>
@@ -19744,10 +19735,10 @@
     </row>
     <row r="139" hidden="true">
       <c r="A139" t="s" s="2">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="B139" t="s" s="2">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="C139" s="2"/>
       <c r="D139" t="s" s="2">
@@ -19770,13 +19761,13 @@
         <v>79</v>
       </c>
       <c r="K139" t="s" s="2">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="L139" t="s" s="2">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="M139" t="s" s="2">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="N139" s="2"/>
       <c r="O139" s="2"/>
@@ -19827,7 +19818,7 @@
         <v>79</v>
       </c>
       <c r="AF139" t="s" s="2">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="AG139" t="s" s="2">
         <v>77</v>
@@ -19836,7 +19827,7 @@
         <v>90</v>
       </c>
       <c r="AI139" t="s" s="2">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="AJ139" t="s" s="2">
         <v>79</v>
@@ -19854,7 +19845,7 @@
         <v>79</v>
       </c>
       <c r="AO139" t="s" s="2">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="AP139" t="s" s="2">
         <v>79</v>
@@ -19862,14 +19853,14 @@
     </row>
     <row r="140" hidden="true">
       <c r="A140" t="s" s="2">
-        <v>821</v>
+        <v>818</v>
       </c>
       <c r="B140" t="s" s="2">
-        <v>821</v>
+        <v>818</v>
       </c>
       <c r="C140" s="2"/>
       <c r="D140" t="s" s="2">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="E140" s="2"/>
       <c r="F140" t="s" s="2">
@@ -19891,13 +19882,13 @@
         <v>137</v>
       </c>
       <c r="L140" t="s" s="2">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="M140" t="s" s="2">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="N140" t="s" s="2">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="O140" s="2"/>
       <c r="P140" t="s" s="2">
@@ -19947,7 +19938,7 @@
         <v>79</v>
       </c>
       <c r="AF140" t="s" s="2">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="AG140" t="s" s="2">
         <v>77</v>
@@ -19974,7 +19965,7 @@
         <v>79</v>
       </c>
       <c r="AO140" t="s" s="2">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="AP140" t="s" s="2">
         <v>79</v>
@@ -19982,14 +19973,14 @@
     </row>
     <row r="141" hidden="true">
       <c r="A141" t="s" s="2">
-        <v>822</v>
+        <v>819</v>
       </c>
       <c r="B141" t="s" s="2">
-        <v>822</v>
+        <v>819</v>
       </c>
       <c r="C141" s="2"/>
       <c r="D141" t="s" s="2">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="E141" s="2"/>
       <c r="F141" t="s" s="2">
@@ -20011,16 +20002,16 @@
         <v>137</v>
       </c>
       <c r="L141" t="s" s="2">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="M141" t="s" s="2">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="N141" t="s" s="2">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="O141" t="s" s="2">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="P141" t="s" s="2">
         <v>79</v>
@@ -20069,7 +20060,7 @@
         <v>79</v>
       </c>
       <c r="AF141" t="s" s="2">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="AG141" t="s" s="2">
         <v>77</v>
@@ -20104,10 +20095,10 @@
     </row>
     <row r="142" hidden="true">
       <c r="A142" t="s" s="2">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="B142" t="s" s="2">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="C142" s="2"/>
       <c r="D142" t="s" s="2">
@@ -20130,16 +20121,16 @@
         <v>79</v>
       </c>
       <c r="K142" t="s" s="2">
-        <v>815</v>
+        <v>812</v>
       </c>
       <c r="L142" t="s" s="2">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="M142" t="s" s="2">
-        <v>826</v>
+        <v>823</v>
       </c>
       <c r="N142" t="s" s="2">
-        <v>827</v>
+        <v>824</v>
       </c>
       <c r="O142" s="2"/>
       <c r="P142" t="s" s="2">
@@ -20189,7 +20180,7 @@
         <v>79</v>
       </c>
       <c r="AF142" t="s" s="2">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="AG142" t="s" s="2">
         <v>77</v>
@@ -20216,7 +20207,7 @@
         <v>79</v>
       </c>
       <c r="AO142" t="s" s="2">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="AP142" t="s" s="2">
         <v>79</v>
@@ -20224,10 +20215,10 @@
     </row>
     <row r="143" hidden="true">
       <c r="A143" t="s" s="2">
-        <v>829</v>
+        <v>826</v>
       </c>
       <c r="B143" t="s" s="2">
-        <v>829</v>
+        <v>826</v>
       </c>
       <c r="C143" s="2"/>
       <c r="D143" t="s" s="2">
@@ -20250,13 +20241,13 @@
         <v>79</v>
       </c>
       <c r="K143" t="s" s="2">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="L143" t="s" s="2">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="M143" t="s" s="2">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="N143" s="2"/>
       <c r="O143" s="2"/>
@@ -20307,7 +20298,7 @@
         <v>79</v>
       </c>
       <c r="AF143" t="s" s="2">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="AG143" t="s" s="2">
         <v>77</v>
@@ -20316,7 +20307,7 @@
         <v>90</v>
       </c>
       <c r="AI143" t="s" s="2">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="AJ143" t="s" s="2">
         <v>79</v>
@@ -20334,7 +20325,7 @@
         <v>79</v>
       </c>
       <c r="AO143" t="s" s="2">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="AP143" t="s" s="2">
         <v>79</v>
@@ -20342,14 +20333,14 @@
     </row>
     <row r="144" hidden="true">
       <c r="A144" t="s" s="2">
-        <v>830</v>
+        <v>827</v>
       </c>
       <c r="B144" t="s" s="2">
-        <v>830</v>
+        <v>827</v>
       </c>
       <c r="C144" s="2"/>
       <c r="D144" t="s" s="2">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="E144" s="2"/>
       <c r="F144" t="s" s="2">
@@ -20371,13 +20362,13 @@
         <v>137</v>
       </c>
       <c r="L144" t="s" s="2">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="M144" t="s" s="2">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="N144" t="s" s="2">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="O144" s="2"/>
       <c r="P144" t="s" s="2">
@@ -20427,7 +20418,7 @@
         <v>79</v>
       </c>
       <c r="AF144" t="s" s="2">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="AG144" t="s" s="2">
         <v>77</v>
@@ -20454,7 +20445,7 @@
         <v>79</v>
       </c>
       <c r="AO144" t="s" s="2">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="AP144" t="s" s="2">
         <v>79</v>
@@ -20462,14 +20453,14 @@
     </row>
     <row r="145" hidden="true">
       <c r="A145" t="s" s="2">
-        <v>831</v>
+        <v>828</v>
       </c>
       <c r="B145" t="s" s="2">
-        <v>831</v>
+        <v>828</v>
       </c>
       <c r="C145" s="2"/>
       <c r="D145" t="s" s="2">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="E145" s="2"/>
       <c r="F145" t="s" s="2">
@@ -20491,16 +20482,16 @@
         <v>137</v>
       </c>
       <c r="L145" t="s" s="2">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="M145" t="s" s="2">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="N145" t="s" s="2">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="O145" t="s" s="2">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="P145" t="s" s="2">
         <v>79</v>
@@ -20549,7 +20540,7 @@
         <v>79</v>
       </c>
       <c r="AF145" t="s" s="2">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="AG145" t="s" s="2">
         <v>77</v>
@@ -20584,10 +20575,10 @@
     </row>
     <row r="146" hidden="true">
       <c r="A146" t="s" s="2">
-        <v>832</v>
+        <v>829</v>
       </c>
       <c r="B146" t="s" s="2">
-        <v>832</v>
+        <v>829</v>
       </c>
       <c r="C146" s="2"/>
       <c r="D146" t="s" s="2">
@@ -20610,13 +20601,13 @@
         <v>79</v>
       </c>
       <c r="K146" t="s" s="2">
-        <v>802</v>
+        <v>799</v>
       </c>
       <c r="L146" t="s" s="2">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="M146" t="s" s="2">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="N146" s="2"/>
       <c r="O146" s="2"/>
@@ -20667,7 +20658,7 @@
         <v>79</v>
       </c>
       <c r="AF146" t="s" s="2">
-        <v>832</v>
+        <v>829</v>
       </c>
       <c r="AG146" t="s" s="2">
         <v>77</v>
@@ -20694,7 +20685,7 @@
         <v>79</v>
       </c>
       <c r="AO146" t="s" s="2">
-        <v>835</v>
+        <v>832</v>
       </c>
       <c r="AP146" t="s" s="2">
         <v>79</v>
@@ -20702,10 +20693,10 @@
     </row>
     <row r="147" hidden="true">
       <c r="A147" t="s" s="2">
-        <v>836</v>
+        <v>833</v>
       </c>
       <c r="B147" t="s" s="2">
-        <v>836</v>
+        <v>833</v>
       </c>
       <c r="C147" s="2"/>
       <c r="D147" t="s" s="2">
@@ -20728,13 +20719,13 @@
         <v>79</v>
       </c>
       <c r="K147" t="s" s="2">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="L147" t="s" s="2">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="M147" t="s" s="2">
-        <v>839</v>
+        <v>836</v>
       </c>
       <c r="N147" s="2"/>
       <c r="O147" s="2"/>
@@ -20785,7 +20776,7 @@
         <v>79</v>
       </c>
       <c r="AF147" t="s" s="2">
-        <v>836</v>
+        <v>833</v>
       </c>
       <c r="AG147" t="s" s="2">
         <v>77</v>
@@ -20812,7 +20803,7 @@
         <v>79</v>
       </c>
       <c r="AO147" t="s" s="2">
-        <v>840</v>
+        <v>837</v>
       </c>
       <c r="AP147" t="s" s="2">
         <v>79</v>
@@ -20820,10 +20811,10 @@
     </row>
     <row r="148" hidden="true">
       <c r="A148" t="s" s="2">
-        <v>841</v>
+        <v>838</v>
       </c>
       <c r="B148" t="s" s="2">
-        <v>841</v>
+        <v>838</v>
       </c>
       <c r="C148" s="2"/>
       <c r="D148" t="s" s="2">
@@ -20846,13 +20837,13 @@
         <v>79</v>
       </c>
       <c r="K148" t="s" s="2">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="L148" t="s" s="2">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="M148" t="s" s="2">
-        <v>843</v>
+        <v>840</v>
       </c>
       <c r="N148" s="2"/>
       <c r="O148" s="2"/>
@@ -20903,7 +20894,7 @@
         <v>79</v>
       </c>
       <c r="AF148" t="s" s="2">
-        <v>841</v>
+        <v>838</v>
       </c>
       <c r="AG148" t="s" s="2">
         <v>77</v>
@@ -20930,7 +20921,7 @@
         <v>79</v>
       </c>
       <c r="AO148" t="s" s="2">
-        <v>840</v>
+        <v>837</v>
       </c>
       <c r="AP148" t="s" s="2">
         <v>79</v>
@@ -20938,10 +20929,10 @@
     </row>
     <row r="149" hidden="true">
       <c r="A149" t="s" s="2">
-        <v>844</v>
+        <v>841</v>
       </c>
       <c r="B149" t="s" s="2">
-        <v>844</v>
+        <v>841</v>
       </c>
       <c r="C149" s="2"/>
       <c r="D149" t="s" s="2">
@@ -20964,19 +20955,19 @@
         <v>79</v>
       </c>
       <c r="K149" t="s" s="2">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="L149" t="s" s="2">
+        <v>842</v>
+      </c>
+      <c r="M149" t="s" s="2">
+        <v>843</v>
+      </c>
+      <c r="N149" t="s" s="2">
+        <v>844</v>
+      </c>
+      <c r="O149" t="s" s="2">
         <v>845</v>
-      </c>
-      <c r="M149" t="s" s="2">
-        <v>846</v>
-      </c>
-      <c r="N149" t="s" s="2">
-        <v>847</v>
-      </c>
-      <c r="O149" t="s" s="2">
-        <v>848</v>
       </c>
       <c r="P149" t="s" s="2">
         <v>79</v>
@@ -21025,7 +21016,7 @@
         <v>79</v>
       </c>
       <c r="AF149" t="s" s="2">
-        <v>844</v>
+        <v>841</v>
       </c>
       <c r="AG149" t="s" s="2">
         <v>77</v>
@@ -21046,13 +21037,13 @@
         <v>79</v>
       </c>
       <c r="AM149" t="s" s="2">
-        <v>849</v>
+        <v>846</v>
       </c>
       <c r="AN149" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO149" t="s" s="2">
-        <v>850</v>
+        <v>847</v>
       </c>
       <c r="AP149" t="s" s="2">
         <v>79</v>
@@ -21060,10 +21051,10 @@
     </row>
     <row r="150" hidden="true">
       <c r="A150" t="s" s="2">
-        <v>851</v>
+        <v>848</v>
       </c>
       <c r="B150" t="s" s="2">
-        <v>851</v>
+        <v>848</v>
       </c>
       <c r="C150" s="2"/>
       <c r="D150" t="s" s="2">
@@ -21086,16 +21077,16 @@
         <v>79</v>
       </c>
       <c r="K150" t="s" s="2">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="L150" t="s" s="2">
-        <v>852</v>
+        <v>849</v>
       </c>
       <c r="M150" t="s" s="2">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="N150" t="s" s="2">
-        <v>854</v>
+        <v>851</v>
       </c>
       <c r="O150" s="2"/>
       <c r="P150" t="s" s="2">
@@ -21145,7 +21136,7 @@
         <v>79</v>
       </c>
       <c r="AF150" t="s" s="2">
-        <v>851</v>
+        <v>848</v>
       </c>
       <c r="AG150" t="s" s="2">
         <v>77</v>
@@ -21166,24 +21157,24 @@
         <v>79</v>
       </c>
       <c r="AM150" t="s" s="2">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="AN150" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO150" t="s" s="2">
-        <v>856</v>
+        <v>853</v>
       </c>
       <c r="AP150" t="s" s="2">
-        <v>857</v>
+        <v>854</v>
       </c>
     </row>
     <row r="151" hidden="true">
       <c r="A151" t="s" s="2">
-        <v>858</v>
+        <v>855</v>
       </c>
       <c r="B151" t="s" s="2">
-        <v>858</v>
+        <v>855</v>
       </c>
       <c r="C151" s="2"/>
       <c r="D151" t="s" s="2">
@@ -21206,13 +21197,13 @@
         <v>79</v>
       </c>
       <c r="K151" t="s" s="2">
-        <v>802</v>
+        <v>799</v>
       </c>
       <c r="L151" t="s" s="2">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="M151" t="s" s="2">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="N151" s="2"/>
       <c r="O151" s="2"/>
@@ -21263,7 +21254,7 @@
         <v>79</v>
       </c>
       <c r="AF151" t="s" s="2">
-        <v>858</v>
+        <v>855</v>
       </c>
       <c r="AG151" t="s" s="2">
         <v>77</v>
@@ -21284,24 +21275,24 @@
         <v>79</v>
       </c>
       <c r="AM151" t="s" s="2">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="AN151" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO151" t="s" s="2">
-        <v>862</v>
+        <v>859</v>
       </c>
       <c r="AP151" t="s" s="2">
-        <v>863</v>
+        <v>860</v>
       </c>
     </row>
     <row r="152" hidden="true">
       <c r="A152" t="s" s="2">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="B152" t="s" s="2">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="C152" s="2"/>
       <c r="D152" t="s" s="2">
@@ -21324,16 +21315,16 @@
         <v>79</v>
       </c>
       <c r="K152" t="s" s="2">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="L152" t="s" s="2">
-        <v>865</v>
+        <v>862</v>
       </c>
       <c r="M152" t="s" s="2">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="N152" t="s" s="2">
-        <v>867</v>
+        <v>864</v>
       </c>
       <c r="O152" s="2"/>
       <c r="P152" t="s" s="2">
@@ -21383,7 +21374,7 @@
         <v>79</v>
       </c>
       <c r="AF152" t="s" s="2">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="AG152" t="s" s="2">
         <v>77</v>
@@ -21404,13 +21395,13 @@
         <v>79</v>
       </c>
       <c r="AM152" t="s" s="2">
-        <v>868</v>
+        <v>865</v>
       </c>
       <c r="AN152" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO152" t="s" s="2">
-        <v>869</v>
+        <v>866</v>
       </c>
       <c r="AP152" t="s" s="2">
         <v>79</v>
@@ -21418,10 +21409,10 @@
     </row>
     <row r="153" hidden="true">
       <c r="A153" t="s" s="2">
-        <v>870</v>
+        <v>867</v>
       </c>
       <c r="B153" t="s" s="2">
-        <v>870</v>
+        <v>867</v>
       </c>
       <c r="C153" s="2"/>
       <c r="D153" t="s" s="2">
@@ -21444,13 +21435,13 @@
         <v>79</v>
       </c>
       <c r="K153" t="s" s="2">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="L153" t="s" s="2">
-        <v>871</v>
+        <v>868</v>
       </c>
       <c r="M153" t="s" s="2">
-        <v>872</v>
+        <v>869</v>
       </c>
       <c r="N153" s="2"/>
       <c r="O153" s="2"/>
@@ -21501,7 +21492,7 @@
         <v>79</v>
       </c>
       <c r="AF153" t="s" s="2">
-        <v>870</v>
+        <v>867</v>
       </c>
       <c r="AG153" t="s" s="2">
         <v>77</v>
@@ -21525,10 +21516,10 @@
         <v>79</v>
       </c>
       <c r="AN153" t="s" s="2">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="AO153" t="s" s="2">
-        <v>873</v>
+        <v>870</v>
       </c>
       <c r="AP153" t="s" s="2">
         <v>79</v>
@@ -21536,10 +21527,10 @@
     </row>
     <row r="154" hidden="true">
       <c r="A154" t="s" s="2">
-        <v>874</v>
+        <v>871</v>
       </c>
       <c r="B154" t="s" s="2">
-        <v>874</v>
+        <v>871</v>
       </c>
       <c r="C154" s="2"/>
       <c r="D154" t="s" s="2">
@@ -21562,13 +21553,13 @@
         <v>79</v>
       </c>
       <c r="K154" t="s" s="2">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="L154" t="s" s="2">
-        <v>875</v>
+        <v>872</v>
       </c>
       <c r="M154" t="s" s="2">
-        <v>876</v>
+        <v>873</v>
       </c>
       <c r="N154" s="2"/>
       <c r="O154" s="2"/>
@@ -21619,7 +21610,7 @@
         <v>79</v>
       </c>
       <c r="AF154" t="s" s="2">
-        <v>874</v>
+        <v>871</v>
       </c>
       <c r="AG154" t="s" s="2">
         <v>77</v>
@@ -21646,7 +21637,7 @@
         <v>79</v>
       </c>
       <c r="AO154" t="s" s="2">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="AP154" t="s" s="2">
         <v>79</v>
@@ -21654,10 +21645,10 @@
     </row>
     <row r="155" hidden="true">
       <c r="A155" t="s" s="2">
-        <v>878</v>
+        <v>875</v>
       </c>
       <c r="B155" t="s" s="2">
-        <v>878</v>
+        <v>875</v>
       </c>
       <c r="C155" s="2"/>
       <c r="D155" t="s" s="2">
@@ -21680,13 +21671,13 @@
         <v>79</v>
       </c>
       <c r="K155" t="s" s="2">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="L155" t="s" s="2">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="M155" t="s" s="2">
-        <v>880</v>
+        <v>877</v>
       </c>
       <c r="N155" s="2"/>
       <c r="O155" s="2"/>
@@ -21713,11 +21704,11 @@
         <v>79</v>
       </c>
       <c r="X155" t="s" s="2">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="Y155" s="2"/>
       <c r="Z155" t="s" s="2">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="AA155" t="s" s="2">
         <v>79</v>
@@ -21735,7 +21726,7 @@
         <v>79</v>
       </c>
       <c r="AF155" t="s" s="2">
-        <v>878</v>
+        <v>875</v>
       </c>
       <c r="AG155" t="s" s="2">
         <v>77</v>
@@ -21762,7 +21753,7 @@
         <v>79</v>
       </c>
       <c r="AO155" t="s" s="2">
-        <v>882</v>
+        <v>879</v>
       </c>
       <c r="AP155" t="s" s="2">
         <v>79</v>
@@ -21770,10 +21761,10 @@
     </row>
     <row r="156" hidden="true">
       <c r="A156" t="s" s="2">
-        <v>883</v>
+        <v>880</v>
       </c>
       <c r="B156" t="s" s="2">
-        <v>883</v>
+        <v>880</v>
       </c>
       <c r="C156" s="2"/>
       <c r="D156" t="s" s="2">
@@ -21796,13 +21787,13 @@
         <v>79</v>
       </c>
       <c r="K156" t="s" s="2">
-        <v>815</v>
+        <v>812</v>
       </c>
       <c r="L156" t="s" s="2">
-        <v>884</v>
+        <v>881</v>
       </c>
       <c r="M156" t="s" s="2">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="N156" s="2"/>
       <c r="O156" s="2"/>
@@ -21853,7 +21844,7 @@
         <v>79</v>
       </c>
       <c r="AF156" t="s" s="2">
-        <v>883</v>
+        <v>880</v>
       </c>
       <c r="AG156" t="s" s="2">
         <v>77</v>
@@ -21868,19 +21859,19 @@
         <v>102</v>
       </c>
       <c r="AK156" t="s" s="2">
-        <v>886</v>
+        <v>883</v>
       </c>
       <c r="AL156" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM156" t="s" s="2">
-        <v>887</v>
+        <v>884</v>
       </c>
       <c r="AN156" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO156" t="s" s="2">
-        <v>888</v>
+        <v>885</v>
       </c>
       <c r="AP156" t="s" s="2">
         <v>79</v>
@@ -21888,10 +21879,10 @@
     </row>
     <row r="157" hidden="true">
       <c r="A157" t="s" s="2">
-        <v>889</v>
+        <v>886</v>
       </c>
       <c r="B157" t="s" s="2">
-        <v>889</v>
+        <v>886</v>
       </c>
       <c r="C157" s="2"/>
       <c r="D157" t="s" s="2">
@@ -21914,13 +21905,13 @@
         <v>79</v>
       </c>
       <c r="K157" t="s" s="2">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="L157" t="s" s="2">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="M157" t="s" s="2">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="N157" s="2"/>
       <c r="O157" s="2"/>
@@ -21971,7 +21962,7 @@
         <v>79</v>
       </c>
       <c r="AF157" t="s" s="2">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="AG157" t="s" s="2">
         <v>77</v>
@@ -21980,7 +21971,7 @@
         <v>90</v>
       </c>
       <c r="AI157" t="s" s="2">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="AJ157" t="s" s="2">
         <v>79</v>
@@ -21998,7 +21989,7 @@
         <v>79</v>
       </c>
       <c r="AO157" t="s" s="2">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="AP157" t="s" s="2">
         <v>79</v>
@@ -22006,14 +21997,14 @@
     </row>
     <row r="158" hidden="true">
       <c r="A158" t="s" s="2">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="B158" t="s" s="2">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="C158" s="2"/>
       <c r="D158" t="s" s="2">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="E158" s="2"/>
       <c r="F158" t="s" s="2">
@@ -22035,13 +22026,13 @@
         <v>137</v>
       </c>
       <c r="L158" t="s" s="2">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="M158" t="s" s="2">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="N158" t="s" s="2">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="O158" s="2"/>
       <c r="P158" t="s" s="2">
@@ -22091,7 +22082,7 @@
         <v>79</v>
       </c>
       <c r="AF158" t="s" s="2">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="AG158" t="s" s="2">
         <v>77</v>
@@ -22118,7 +22109,7 @@
         <v>79</v>
       </c>
       <c r="AO158" t="s" s="2">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="AP158" t="s" s="2">
         <v>79</v>
@@ -22126,14 +22117,14 @@
     </row>
     <row r="159" hidden="true">
       <c r="A159" t="s" s="2">
-        <v>891</v>
+        <v>888</v>
       </c>
       <c r="B159" t="s" s="2">
-        <v>891</v>
+        <v>888</v>
       </c>
       <c r="C159" s="2"/>
       <c r="D159" t="s" s="2">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="E159" s="2"/>
       <c r="F159" t="s" s="2">
@@ -22155,16 +22146,16 @@
         <v>137</v>
       </c>
       <c r="L159" t="s" s="2">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="M159" t="s" s="2">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="N159" t="s" s="2">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="O159" t="s" s="2">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="P159" t="s" s="2">
         <v>79</v>
@@ -22213,7 +22204,7 @@
         <v>79</v>
       </c>
       <c r="AF159" t="s" s="2">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="AG159" t="s" s="2">
         <v>77</v>
@@ -22248,10 +22239,10 @@
     </row>
     <row r="160" hidden="true">
       <c r="A160" t="s" s="2">
-        <v>892</v>
+        <v>889</v>
       </c>
       <c r="B160" t="s" s="2">
-        <v>892</v>
+        <v>889</v>
       </c>
       <c r="C160" s="2"/>
       <c r="D160" t="s" s="2">
@@ -22274,16 +22265,16 @@
         <v>79</v>
       </c>
       <c r="K160" t="s" s="2">
+        <v>890</v>
+      </c>
+      <c r="L160" t="s" s="2">
+        <v>891</v>
+      </c>
+      <c r="M160" t="s" s="2">
+        <v>892</v>
+      </c>
+      <c r="N160" t="s" s="2">
         <v>893</v>
-      </c>
-      <c r="L160" t="s" s="2">
-        <v>894</v>
-      </c>
-      <c r="M160" t="s" s="2">
-        <v>895</v>
-      </c>
-      <c r="N160" t="s" s="2">
-        <v>896</v>
       </c>
       <c r="O160" s="2"/>
       <c r="P160" t="s" s="2">
@@ -22309,13 +22300,13 @@
         <v>79</v>
       </c>
       <c r="X160" t="s" s="2">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="Y160" t="s" s="2">
-        <v>897</v>
+        <v>894</v>
       </c>
       <c r="Z160" t="s" s="2">
-        <v>898</v>
+        <v>895</v>
       </c>
       <c r="AA160" t="s" s="2">
         <v>79</v>
@@ -22333,7 +22324,7 @@
         <v>79</v>
       </c>
       <c r="AF160" t="s" s="2">
-        <v>892</v>
+        <v>889</v>
       </c>
       <c r="AG160" t="s" s="2">
         <v>90</v>
@@ -22354,24 +22345,24 @@
         <v>79</v>
       </c>
       <c r="AM160" t="s" s="2">
-        <v>887</v>
+        <v>884</v>
       </c>
       <c r="AN160" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO160" t="s" s="2">
-        <v>899</v>
+        <v>896</v>
       </c>
       <c r="AP160" t="s" s="2">
-        <v>900</v>
+        <v>897</v>
       </c>
     </row>
     <row r="161" hidden="true">
       <c r="A161" t="s" s="2">
-        <v>901</v>
+        <v>898</v>
       </c>
       <c r="B161" t="s" s="2">
-        <v>901</v>
+        <v>898</v>
       </c>
       <c r="C161" s="2"/>
       <c r="D161" t="s" s="2">
@@ -22394,13 +22385,13 @@
         <v>79</v>
       </c>
       <c r="K161" t="s" s="2">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="L161" t="s" s="2">
-        <v>902</v>
+        <v>899</v>
       </c>
       <c r="M161" t="s" s="2">
-        <v>903</v>
+        <v>900</v>
       </c>
       <c r="N161" s="2"/>
       <c r="O161" s="2"/>
@@ -22427,13 +22418,13 @@
         <v>79</v>
       </c>
       <c r="X161" t="s" s="2">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="Y161" t="s" s="2">
-        <v>904</v>
+        <v>901</v>
       </c>
       <c r="Z161" t="s" s="2">
-        <v>905</v>
+        <v>902</v>
       </c>
       <c r="AA161" t="s" s="2">
         <v>79</v>
@@ -22451,7 +22442,7 @@
         <v>79</v>
       </c>
       <c r="AF161" t="s" s="2">
-        <v>901</v>
+        <v>898</v>
       </c>
       <c r="AG161" t="s" s="2">
         <v>77</v>
@@ -22472,24 +22463,24 @@
         <v>79</v>
       </c>
       <c r="AM161" t="s" s="2">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="AN161" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO161" t="s" s="2">
-        <v>906</v>
+        <v>903</v>
       </c>
       <c r="AP161" t="s" s="2">
-        <v>907</v>
+        <v>904</v>
       </c>
     </row>
     <row r="162" hidden="true">
       <c r="A162" t="s" s="2">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="B162" t="s" s="2">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="C162" s="2"/>
       <c r="D162" t="s" s="2">
@@ -22512,16 +22503,16 @@
         <v>79</v>
       </c>
       <c r="K162" t="s" s="2">
+        <v>906</v>
+      </c>
+      <c r="L162" t="s" s="2">
+        <v>907</v>
+      </c>
+      <c r="M162" t="s" s="2">
+        <v>908</v>
+      </c>
+      <c r="N162" t="s" s="2">
         <v>909</v>
-      </c>
-      <c r="L162" t="s" s="2">
-        <v>910</v>
-      </c>
-      <c r="M162" t="s" s="2">
-        <v>911</v>
-      </c>
-      <c r="N162" t="s" s="2">
-        <v>912</v>
       </c>
       <c r="O162" s="2"/>
       <c r="P162" t="s" s="2">
@@ -22571,7 +22562,7 @@
         <v>79</v>
       </c>
       <c r="AF162" t="s" s="2">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="AG162" t="s" s="2">
         <v>77</v>
@@ -22589,7 +22580,7 @@
         <v>79</v>
       </c>
       <c r="AL162" t="s" s="2">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="AM162" t="s" s="2">
         <v>79</v>
@@ -22598,7 +22589,7 @@
         <v>79</v>
       </c>
       <c r="AO162" t="s" s="2">
-        <v>914</v>
+        <v>911</v>
       </c>
       <c r="AP162" t="s" s="2">
         <v>79</v>

--- a/mapping-pn13/ig/StructureDefinition-oncofaire-medicationrequest-element.xlsx
+++ b/mapping-pn13/ig/StructureDefinition-oncofaire-medicationrequest-element.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-22T13:59:04+00:00</t>
+    <t>2024-04-22T14:39:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/mapping-pn13/ig/StructureDefinition-oncofaire-medicationrequest-element.xlsx
+++ b/mapping-pn13/ig/StructureDefinition-oncofaire-medicationrequest-element.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-22T14:39:57+00:00</t>
+    <t>2024-04-22T15:15:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -273,7 +273,7 @@
 dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().ofType(canonical) | %resource.descendants().ofType(uri) | %resource.descendants().ofType(url))) or descendants().where(reference = '#').exists() or descendants().where(ofType(canonical) = '#').exists() or descendants().where(ofType(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
   </si>
   <si>
-    <t>ELEMENT DE PRESCRIPTION</t>
+    <t>ELEMENT PRESCRIPTION</t>
   </si>
   <si>
     <t>Request</t>

--- a/mapping-pn13/ig/StructureDefinition-oncofaire-medicationrequest-element.xlsx
+++ b/mapping-pn13/ig/StructureDefinition-oncofaire-medicationrequest-element.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-23T15:10:46+00:00</t>
+    <t>2024-04-24T09:25:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/mapping-pn13/ig/StructureDefinition-oncofaire-medicationrequest-element.xlsx
+++ b/mapping-pn13/ig/StructureDefinition-oncofaire-medicationrequest-element.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-24T09:25:28+00:00</t>
+    <t>2024-04-29T13:02:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
